--- a/Figure S4/Fig S4B - Infections by environment/Manually Corrected Species (NEW).xlsx
+++ b/Figure S4/Fig S4B - Infections by environment/Manually Corrected Species (NEW).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Shared\Microsporidia database\Figure S2 (Jason)\Fig 4C - Infections by environment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Shared\Microsporidia database\Figure S4\Fig S4B - Infections by environment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCC7B689-D191-402E-B90F-3F10B714E474}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97D89FE7-4516-4CE0-ACE0-AD0AE25BAA65}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="930" windowWidth="17775" windowHeight="14670" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11475" yWindow="885" windowWidth="14775" windowHeight="12885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4197" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4222" uniqueCount="829">
   <si>
     <t>Species</t>
   </si>
@@ -1390,12 +1390,6 @@
     <t>Nosema fumiferanae</t>
   </si>
   <si>
-    <t>Choristoneura fumiferana; Choristoneura pinus</t>
-  </si>
-  <si>
-    <t>midgut; fat body; silk gland; epidermis; gonad; hindgut; nerve tissue</t>
-  </si>
-  <si>
     <t>Nosema helminthorum</t>
   </si>
   <si>
@@ -2519,6 +2513,27 @@
   </si>
   <si>
     <t>muscles; brain; internal organs</t>
+  </si>
+  <si>
+    <t>Choristoneura fumiferana; Choristoneura pinus; Ectomyelois ceratoniae</t>
+  </si>
+  <si>
+    <t>midgut (main infection site, all hosts); fat body; silk gland; epidermis; gonad; hindgut; nerve tissue; haemolymph (E. ceratoniae)</t>
+  </si>
+  <si>
+    <t>midgut; fat body; silk gland; epidermis; gonad; hindgut; nerve tissue; haemolymph</t>
+  </si>
+  <si>
+    <t>Alternosema bostrichidis</t>
+  </si>
+  <si>
+    <t>Prostephanus truncatus; Dinoderus bifoveolatus; Dinoderus porcellus; Dinoderus minutus</t>
+  </si>
+  <si>
+    <t>muscles; gonads; midgut epithelium; Malpighian tubules (vessels); fat body</t>
+  </si>
+  <si>
+    <t>muscles; gonads; midgut epithelium; Malpighian tubules; fat body</t>
   </si>
 </sst>
 </file>
@@ -2901,11 +2916,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H754"/>
+  <dimension ref="A1:H759"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A704" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C709" sqref="C709"/>
+      <pane ySplit="1" topLeftCell="A742" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B760" sqref="B760"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3597,7 +3612,7 @@
         <v>48</v>
       </c>
       <c r="F36" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G36" t="s">
         <v>49</v>
@@ -3623,7 +3638,7 @@
         <v>48</v>
       </c>
       <c r="F37" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G37" t="s">
         <v>49</v>
@@ -4083,7 +4098,7 @@
         <v>77</v>
       </c>
       <c r="F61" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G61" t="s">
         <v>49</v>
@@ -4109,7 +4124,7 @@
         <v>77</v>
       </c>
       <c r="F62" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="G62" t="s">
         <v>49</v>
@@ -6269,7 +6284,7 @@
         <v>38</v>
       </c>
       <c r="F164" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G164" t="s">
         <v>34</v>
@@ -6295,7 +6310,7 @@
         <v>38</v>
       </c>
       <c r="F165" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="G165" t="s">
         <v>34</v>
@@ -6402,20 +6417,20 @@
     </row>
     <row r="171" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C171" s="6"/>
       <c r="D171" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F171" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="E171" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F171" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="G171" s="5" t="s">
         <v>34</v>
@@ -6426,20 +6441,20 @@
     </row>
     <row r="172" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A172" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C172" s="6"/>
       <c r="D172" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E172" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F172" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="E172" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F172" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>34</v>
@@ -6450,20 +6465,20 @@
     </row>
     <row r="173" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A173" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C173" s="6"/>
       <c r="D173" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F173" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="E173" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F173" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>34</v>
@@ -6474,20 +6489,20 @@
     </row>
     <row r="174" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A174" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F174" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F174" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>34</v>
@@ -6498,20 +6513,20 @@
     </row>
     <row r="175" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C175" s="6"/>
       <c r="D175" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E175" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F175" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="E175" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F175" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>34</v>
@@ -6522,22 +6537,22 @@
     </row>
     <row r="176" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A176" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>791</v>
+      </c>
+      <c r="C176" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="D176" s="5" t="s">
         <v>792</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="E176" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="C176" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="D176" s="5" t="s">
+      <c r="F176" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="E176" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F176" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>34</v>
@@ -6548,20 +6563,20 @@
     </row>
     <row r="177" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A177" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C177" s="6"/>
       <c r="D177" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E177" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F177" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="E177" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F177" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>34</v>
@@ -6572,20 +6587,20 @@
     </row>
     <row r="178" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A178" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C178" s="6"/>
       <c r="D178" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E178" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F178" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="E178" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F178" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>34</v>
@@ -6596,20 +6611,20 @@
     </row>
     <row r="179" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A179" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C179" s="6"/>
       <c r="D179" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E179" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F179" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="E179" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F179" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>34</v>
@@ -6620,20 +6635,20 @@
     </row>
     <row r="180" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A180" s="5" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="B180" s="5" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="C180" s="6"/>
       <c r="D180" s="5" t="s">
+        <v>792</v>
+      </c>
+      <c r="E180" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="F180" s="5" t="s">
         <v>794</v>
-      </c>
-      <c r="E180" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="F180" s="5" t="s">
-        <v>796</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>34</v>
@@ -10504,20 +10519,20 @@
     </row>
     <row r="383" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A383" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B383" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C383" s="2"/>
       <c r="D383" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E383" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F383" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G383" s="4" t="s">
         <v>162</v>
@@ -10528,20 +10543,20 @@
     </row>
     <row r="384" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A384" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B384" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C384" s="2"/>
       <c r="D384" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E384" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F384" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G384" s="4" t="s">
         <v>162</v>
@@ -10552,20 +10567,20 @@
     </row>
     <row r="385" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A385" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="B385" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="E385" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="F385" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="G385" s="4" t="s">
         <v>162</v>
@@ -10970,7 +10985,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>443</v>
       </c>
@@ -10993,14 +11008,14 @@
         <v>446</v>
       </c>
       <c r="B408" t="s">
-        <v>447</v>
+        <v>822</v>
       </c>
       <c r="C408" s="2"/>
       <c r="D408" t="s">
-        <v>448</v>
+        <v>823</v>
       </c>
       <c r="E408" t="s">
-        <v>448</v>
+        <v>824</v>
       </c>
       <c r="H408" t="s">
         <v>18</v>
@@ -11011,14 +11026,14 @@
         <v>446</v>
       </c>
       <c r="B409" t="s">
-        <v>447</v>
+        <v>822</v>
       </c>
       <c r="C409" s="2"/>
       <c r="D409" t="s">
-        <v>448</v>
+        <v>823</v>
       </c>
       <c r="E409" t="s">
-        <v>448</v>
+        <v>824</v>
       </c>
       <c r="H409" t="s">
         <v>18</v>
@@ -11026,17 +11041,17 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="B410" t="s">
-        <v>450</v>
+        <v>822</v>
       </c>
       <c r="C410" s="2"/>
       <c r="D410" t="s">
-        <v>451</v>
+        <v>823</v>
       </c>
       <c r="E410" t="s">
-        <v>451</v>
+        <v>824</v>
       </c>
       <c r="H410" t="s">
         <v>18</v>
@@ -11044,17 +11059,17 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B411" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C411" s="2"/>
       <c r="D411" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E411" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H411" t="s">
         <v>18</v>
@@ -11062,17 +11077,17 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B412" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C412" s="2"/>
       <c r="D412" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E412" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H412" t="s">
         <v>18</v>
@@ -11080,17 +11095,17 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B413" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C413" s="2"/>
       <c r="D413" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E413" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="H413" t="s">
         <v>18</v>
@@ -11098,28 +11113,28 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B414" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="C414" s="2"/>
       <c r="D414" t="s">
-        <v>22</v>
+        <v>449</v>
       </c>
       <c r="E414" t="s">
-        <v>22</v>
+        <v>449</v>
       </c>
       <c r="H414" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B415" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C415" s="2"/>
       <c r="D415" t="s">
@@ -11134,41 +11149,35 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B416" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="C416" s="2"/>
       <c r="D416" t="s">
-        <v>456</v>
+        <v>22</v>
       </c>
       <c r="E416" t="s">
-        <v>457</v>
-      </c>
-      <c r="F416" t="s">
-        <v>49</v>
-      </c>
-      <c r="G416" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="H416" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B417" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C417" s="2"/>
       <c r="D417" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E417" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F417" t="s">
         <v>49</v>
@@ -11182,17 +11191,17 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B418" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C418" s="2"/>
       <c r="D418" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E418" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F418" t="s">
         <v>49</v>
@@ -11206,17 +11215,17 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B419" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C419" s="2"/>
       <c r="D419" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E419" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F419" t="s">
         <v>49</v>
@@ -11228,89 +11237,95 @@
         <v>18</v>
       </c>
     </row>
-    <row r="420" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="4" t="s">
-        <v>802</v>
-      </c>
-      <c r="B420" s="4" t="s">
-        <v>803</v>
-      </c>
-      <c r="C420" s="4" t="s">
-        <v>804</v>
-      </c>
-      <c r="D420" s="4" t="s">
-        <v>805</v>
-      </c>
-      <c r="E420" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="F420" s="4" t="s">
-        <v>807</v>
-      </c>
-      <c r="G420" s="4" t="s">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A420" t="s">
+        <v>452</v>
+      </c>
+      <c r="B420" t="s">
+        <v>453</v>
+      </c>
+      <c r="C420" s="2"/>
+      <c r="D420" t="s">
+        <v>454</v>
+      </c>
+      <c r="E420" t="s">
+        <v>455</v>
+      </c>
+      <c r="F420" t="s">
         <v>49</v>
       </c>
-      <c r="H420" s="4" t="s">
+      <c r="G420" t="s">
+        <v>49</v>
+      </c>
+      <c r="H420" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="421" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A421" s="4" t="s">
+        <v>800</v>
+      </c>
+      <c r="B421" s="4" t="s">
+        <v>801</v>
+      </c>
+      <c r="C421" s="4" t="s">
         <v>802</v>
       </c>
-      <c r="B421" s="4" t="s">
+      <c r="D421" s="4" t="s">
         <v>803</v>
       </c>
-      <c r="C421" s="4" t="s">
-        <v>808</v>
-      </c>
-      <c r="D421" s="4" t="s">
+      <c r="E421" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="F421" s="4" t="s">
         <v>805</v>
-      </c>
-      <c r="E421" s="4" t="s">
-        <v>806</v>
-      </c>
-      <c r="F421" s="4" t="s">
-        <v>807</v>
       </c>
       <c r="G421" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H421" s="3" t="s">
-        <v>12</v>
+      <c r="H421" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="422" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A422" s="4" t="s">
-        <v>809</v>
+        <v>800</v>
       </c>
       <c r="B422" s="4" t="s">
-        <v>810</v>
-      </c>
-      <c r="C422" s="2"/>
+        <v>801</v>
+      </c>
+      <c r="C422" s="4" t="s">
+        <v>806</v>
+      </c>
       <c r="D422" s="4" t="s">
-        <v>811</v>
+        <v>803</v>
       </c>
       <c r="E422" s="4" t="s">
-        <v>811</v>
-      </c>
-      <c r="H422" s="4" t="s">
+        <v>804</v>
+      </c>
+      <c r="F422" s="4" t="s">
+        <v>805</v>
+      </c>
+      <c r="G422" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H422" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="423" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A423" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B423" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C423" s="2"/>
       <c r="D423" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E423" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H423" s="4" t="s">
         <v>12</v>
@@ -11318,17 +11333,17 @@
     </row>
     <row r="424" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A424" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B424" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C424" s="2"/>
       <c r="D424" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E424" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H424" s="4" t="s">
         <v>12</v>
@@ -11336,17 +11351,17 @@
     </row>
     <row r="425" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A425" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B425" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C425" s="2"/>
       <c r="D425" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E425" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H425" s="4" t="s">
         <v>12</v>
@@ -11354,53 +11369,53 @@
     </row>
     <row r="426" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A426" s="4" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B426" s="4" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C426" s="2"/>
       <c r="D426" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E426" s="4" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="H426" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A427" t="s">
-        <v>458</v>
-      </c>
-      <c r="B427" t="s">
-        <v>459</v>
+    <row r="427" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="4" t="s">
+        <v>807</v>
+      </c>
+      <c r="B427" s="4" t="s">
+        <v>808</v>
       </c>
       <c r="C427" s="2"/>
-      <c r="D427" t="s">
-        <v>460</v>
-      </c>
-      <c r="E427" t="s">
-        <v>460</v>
-      </c>
-      <c r="H427" t="s">
+      <c r="D427" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="E427" s="4" t="s">
+        <v>809</v>
+      </c>
+      <c r="H427" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B428" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C428" s="2"/>
       <c r="D428" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E428" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H428" t="s">
         <v>12</v>
@@ -11408,17 +11423,17 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B429" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C429" s="2"/>
       <c r="D429" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E429" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H429" t="s">
         <v>12</v>
@@ -11426,17 +11441,17 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B430" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="C430" s="2"/>
       <c r="D430" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E430" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="H430" t="s">
         <v>12</v>
@@ -11444,17 +11459,17 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="B431" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="E431" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="H431" t="s">
         <v>12</v>
@@ -11462,17 +11477,17 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B432" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C432" s="2"/>
       <c r="D432" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="E432" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H432" t="s">
         <v>12</v>
@@ -11480,35 +11495,35 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="B433" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="C433" s="2"/>
       <c r="D433" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E433" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="H433" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B434" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C434" s="2"/>
       <c r="D434" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E434" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H434" t="s">
         <v>18</v>
@@ -11516,28 +11531,28 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B435" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="C435" s="2"/>
       <c r="D435" t="s">
-        <v>22</v>
+        <v>464</v>
       </c>
       <c r="E435" t="s">
-        <v>22</v>
+        <v>465</v>
       </c>
       <c r="H435" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B436" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C436" s="2"/>
       <c r="D436" t="s">
@@ -11552,35 +11567,35 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="B437" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C437" s="2"/>
       <c r="D437" t="s">
-        <v>790</v>
+        <v>22</v>
       </c>
       <c r="E437" t="s">
-        <v>790</v>
+        <v>22</v>
       </c>
       <c r="H437" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B438" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="C438" s="2"/>
       <c r="D438" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="E438" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="H438" t="s">
         <v>18</v>
@@ -11588,23 +11603,17 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B439" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C439" s="2"/>
       <c r="D439" t="s">
-        <v>474</v>
+        <v>788</v>
       </c>
       <c r="E439" t="s">
-        <v>475</v>
-      </c>
-      <c r="F439" t="s">
-        <v>78</v>
-      </c>
-      <c r="G439" t="s">
-        <v>49</v>
+        <v>788</v>
       </c>
       <c r="H439" t="s">
         <v>18</v>
@@ -11612,17 +11621,17 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B440" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C440" s="2"/>
       <c r="D440" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E440" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F440" t="s">
         <v>78</v>
@@ -11636,17 +11645,17 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B441" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C441" s="2"/>
       <c r="D441" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E441" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F441" t="s">
         <v>78</v>
@@ -11660,17 +11669,17 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B442" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C442" s="2"/>
       <c r="D442" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E442" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F442" t="s">
         <v>78</v>
@@ -11684,35 +11693,41 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B443" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="C443" s="2"/>
       <c r="D443" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="E443" t="s">
-        <v>479</v>
+        <v>473</v>
+      </c>
+      <c r="F443" t="s">
+        <v>78</v>
+      </c>
+      <c r="G443" t="s">
+        <v>49</v>
       </c>
       <c r="H443" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B444" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C444" s="2"/>
       <c r="D444" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E444" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H444" t="s">
         <v>12</v>
@@ -11720,17 +11735,17 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B445" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C445" s="2"/>
       <c r="D445" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E445" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H445" t="s">
         <v>12</v>
@@ -11738,59 +11753,53 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B446" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C446" s="2"/>
       <c r="D446" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="E446" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="H446" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="447" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="4" t="s">
-        <v>812</v>
-      </c>
-      <c r="B447" s="4" t="s">
-        <v>813</v>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>474</v>
+      </c>
+      <c r="B447" t="s">
+        <v>475</v>
       </c>
       <c r="C447" s="2"/>
-      <c r="D447" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="E447" s="4" t="s">
-        <v>814</v>
-      </c>
-      <c r="F447" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="G447" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H447" s="4" t="s">
-        <v>18</v>
+      <c r="D447" t="s">
+        <v>476</v>
+      </c>
+      <c r="E447" t="s">
+        <v>477</v>
+      </c>
+      <c r="H447" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="448" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A448" s="4" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="B448" s="4" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="C448" s="2"/>
       <c r="D448" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E448" s="4" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="F448" s="4" t="s">
         <v>78</v>
@@ -11802,36 +11811,40 @@
         <v>18</v>
       </c>
     </row>
-    <row r="449" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" t="s">
+    <row r="449" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="4" t="s">
+        <v>810</v>
+      </c>
+      <c r="B449" s="4" t="s">
+        <v>811</v>
+      </c>
+      <c r="C449" s="2"/>
+      <c r="D449" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="E449" s="4" t="s">
+        <v>812</v>
+      </c>
+      <c r="F449" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G449" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H449" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>478</v>
+      </c>
+      <c r="B450" t="s">
+        <v>479</v>
+      </c>
+      <c r="C450" s="2"/>
+      <c r="F450" t="s">
         <v>480</v>
-      </c>
-      <c r="B449" t="s">
-        <v>481</v>
-      </c>
-      <c r="C449" s="2"/>
-      <c r="F449" t="s">
-        <v>482</v>
-      </c>
-      <c r="G449" t="s">
-        <v>162</v>
-      </c>
-      <c r="H449" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A450" t="s">
-        <v>480</v>
-      </c>
-      <c r="B450" t="s">
-        <v>481</v>
-      </c>
-      <c r="C450" t="s">
-        <v>415</v>
-      </c>
-      <c r="F450" t="s">
-        <v>482</v>
       </c>
       <c r="G450" t="s">
         <v>162</v>
@@ -11842,35 +11855,37 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="B451" t="s">
-        <v>484</v>
-      </c>
-      <c r="C451" s="2"/>
-      <c r="D451" t="s">
-        <v>485</v>
-      </c>
-      <c r="E451" t="s">
-        <v>485</v>
+        <v>479</v>
+      </c>
+      <c r="C451" t="s">
+        <v>415</v>
+      </c>
+      <c r="F451" t="s">
+        <v>480</v>
+      </c>
+      <c r="G451" t="s">
+        <v>162</v>
       </c>
       <c r="H451" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B452" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C452" s="2"/>
       <c r="D452" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E452" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H452" t="s">
         <v>18</v>
@@ -11878,35 +11893,35 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B453" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="C453" s="2"/>
       <c r="D453" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E453" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H453" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B454" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C454" s="2"/>
       <c r="D454" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E454" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="H454" t="s">
         <v>12</v>
@@ -11914,35 +11929,35 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="B455" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="C455" s="2"/>
       <c r="D455" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E455" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="H455" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B456" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C456" s="2"/>
       <c r="D456" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E456" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H456" t="s">
         <v>18</v>
@@ -11950,17 +11965,17 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B457" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C457" s="2"/>
       <c r="D457" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E457" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H457" t="s">
         <v>18</v>
@@ -11968,17 +11983,17 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B458" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C458" s="2"/>
       <c r="D458" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E458" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H458" t="s">
         <v>18</v>
@@ -11986,17 +12001,17 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B459" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C459" s="2"/>
       <c r="D459" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E459" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H459" t="s">
         <v>18</v>
@@ -12004,17 +12019,17 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B460" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C460" s="2"/>
       <c r="D460" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E460" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H460" t="s">
         <v>18</v>
@@ -12022,17 +12037,17 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B461" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C461" s="2"/>
       <c r="D461" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E461" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H461" t="s">
         <v>18</v>
@@ -12040,17 +12055,17 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B462" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C462" s="2"/>
       <c r="D462" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E462" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H462" t="s">
         <v>18</v>
@@ -12058,17 +12073,17 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B463" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C463" s="2"/>
       <c r="D463" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E463" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H463" t="s">
         <v>18</v>
@@ -12076,17 +12091,17 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B464" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C464" s="2"/>
       <c r="D464" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E464" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H464" t="s">
         <v>18</v>
@@ -12094,17 +12109,17 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B465" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C465" s="2"/>
       <c r="D465" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E465" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H465" t="s">
         <v>18</v>
@@ -12112,17 +12127,17 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B466" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C466" s="2"/>
       <c r="D466" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E466" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H466" t="s">
         <v>18</v>
@@ -12130,17 +12145,17 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B467" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C467" s="2"/>
       <c r="D467" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E467" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H467" t="s">
         <v>18</v>
@@ -12148,17 +12163,17 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B468" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C468" s="2"/>
       <c r="D468" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E468" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H468" t="s">
         <v>18</v>
@@ -12166,17 +12181,17 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B469" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C469" s="2"/>
       <c r="D469" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E469" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H469" t="s">
         <v>18</v>
@@ -12184,17 +12199,17 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B470" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C470" s="2"/>
       <c r="D470" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E470" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H470" t="s">
         <v>18</v>
@@ -12202,17 +12217,17 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B471" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="C471" s="2"/>
       <c r="D471" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="E471" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H471" t="s">
         <v>18</v>
@@ -12220,34 +12235,32 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B472" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="C472" s="2"/>
       <c r="D472" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="E472" t="s">
-        <v>22</v>
+        <v>490</v>
       </c>
       <c r="H472" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>491</v>
+      </c>
+      <c r="B473" t="s">
+        <v>492</v>
+      </c>
+      <c r="C473" s="2"/>
+      <c r="D473" t="s">
         <v>493</v>
-      </c>
-      <c r="B473" t="s">
-        <v>494</v>
-      </c>
-      <c r="C473" t="s">
-        <v>496</v>
-      </c>
-      <c r="D473" t="s">
-        <v>495</v>
       </c>
       <c r="E473" t="s">
         <v>22</v>
@@ -12258,17 +12271,19 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B474" t="s">
-        <v>498</v>
-      </c>
-      <c r="C474" s="2"/>
+        <v>492</v>
+      </c>
+      <c r="C474" t="s">
+        <v>494</v>
+      </c>
       <c r="D474" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E474" t="s">
-        <v>499</v>
+        <v>22</v>
       </c>
       <c r="H474" t="s">
         <v>12</v>
@@ -12276,17 +12291,17 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B475" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C475" s="2"/>
       <c r="D475" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E475" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H475" t="s">
         <v>12</v>
@@ -12294,17 +12309,17 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B476" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="C476" s="2"/>
       <c r="D476" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="E476" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H476" t="s">
         <v>12</v>
@@ -12312,17 +12327,17 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B477" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E477" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="H477" t="s">
         <v>12</v>
@@ -12330,17 +12345,17 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B478" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C478" s="2"/>
       <c r="D478" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E478" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H478" t="s">
         <v>12</v>
@@ -12348,17 +12363,17 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B479" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="C479" s="2"/>
       <c r="D479" t="s">
-        <v>22</v>
+        <v>500</v>
       </c>
       <c r="E479" t="s">
-        <v>22</v>
+        <v>501</v>
       </c>
       <c r="H479" t="s">
         <v>12</v>
@@ -12366,10 +12381,10 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B480" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C480" s="2"/>
       <c r="D480" t="s">
@@ -12384,10 +12399,10 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B481" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C481" s="2"/>
       <c r="D481" t="s">
@@ -12402,10 +12417,10 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B482" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C482" s="2"/>
       <c r="D482" t="s">
@@ -12420,10 +12435,10 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B483" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C483" s="2"/>
       <c r="D483" t="s">
@@ -12438,10 +12453,10 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B484" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C484" s="2"/>
       <c r="D484" t="s">
@@ -12456,10 +12471,10 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B485" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C485" s="2"/>
       <c r="D485" t="s">
@@ -12474,23 +12489,17 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B486" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C486" s="2"/>
       <c r="D486" t="s">
-        <v>508</v>
+        <v>22</v>
       </c>
       <c r="E486" t="s">
-        <v>509</v>
-      </c>
-      <c r="F486" t="s">
-        <v>120</v>
-      </c>
-      <c r="G486" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H486" t="s">
         <v>12</v>
@@ -12498,17 +12507,17 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B487" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C487" s="2"/>
       <c r="D487" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E487" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F487" t="s">
         <v>120</v>
@@ -12522,17 +12531,23 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B488" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="C488" s="2"/>
       <c r="D488" t="s">
-        <v>138</v>
+        <v>506</v>
       </c>
       <c r="E488" t="s">
-        <v>138</v>
+        <v>507</v>
+      </c>
+      <c r="F488" t="s">
+        <v>120</v>
+      </c>
+      <c r="G488" t="s">
+        <v>53</v>
       </c>
       <c r="H488" t="s">
         <v>12</v>
@@ -12540,10 +12555,10 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B489" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C489" s="2"/>
       <c r="D489" t="s">
@@ -12558,10 +12573,10 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B490" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C490" s="2"/>
       <c r="D490" t="s">
@@ -12576,41 +12591,35 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B491" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="C491" s="2"/>
       <c r="D491" t="s">
-        <v>514</v>
+        <v>138</v>
       </c>
       <c r="E491" t="s">
-        <v>515</v>
-      </c>
-      <c r="F491" t="s">
-        <v>120</v>
-      </c>
-      <c r="G491" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
       <c r="H491" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B492" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C492" s="2"/>
       <c r="D492" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E492" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F492" t="s">
         <v>120</v>
@@ -12624,17 +12633,17 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B493" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C493" s="2"/>
       <c r="D493" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E493" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F493" t="s">
         <v>120</v>
@@ -12648,17 +12657,17 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B494" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C494" s="2"/>
       <c r="D494" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E494" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F494" t="s">
         <v>120</v>
@@ -12672,17 +12681,17 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B495" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C495" s="2"/>
       <c r="D495" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E495" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F495" t="s">
         <v>120</v>
@@ -12696,17 +12705,17 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B496" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C496" s="2"/>
       <c r="D496" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E496" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F496" t="s">
         <v>120</v>
@@ -12720,17 +12729,17 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B497" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C497" s="2"/>
       <c r="D497" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E497" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F497" t="s">
         <v>120</v>
@@ -12744,17 +12753,17 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B498" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C498" s="2"/>
       <c r="D498" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E498" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F498" t="s">
         <v>120</v>
@@ -12768,17 +12777,17 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B499" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C499" s="2"/>
       <c r="D499" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E499" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F499" t="s">
         <v>120</v>
@@ -12792,17 +12801,17 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B500" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C500" s="2"/>
       <c r="D500" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E500" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F500" t="s">
         <v>120</v>
@@ -12816,17 +12825,17 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B501" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="E501" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="F501" t="s">
         <v>120</v>
@@ -12840,35 +12849,41 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B502" t="s">
-        <v>371</v>
+        <v>511</v>
       </c>
       <c r="C502" s="2"/>
       <c r="D502" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="E502" t="s">
-        <v>517</v>
+        <v>513</v>
+      </c>
+      <c r="F502" t="s">
+        <v>120</v>
+      </c>
+      <c r="G502" t="s">
+        <v>53</v>
       </c>
       <c r="H502" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B503" t="s">
         <v>371</v>
       </c>
       <c r="C503" s="2"/>
       <c r="D503" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="E503" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="H503" t="s">
         <v>12</v>
@@ -12876,35 +12891,35 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B504" t="s">
-        <v>519</v>
+        <v>371</v>
       </c>
       <c r="C504" s="2"/>
       <c r="D504" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="E504" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="H504" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B505" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C505" s="2"/>
       <c r="D505" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E505" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H505" t="s">
         <v>18</v>
@@ -12912,17 +12927,17 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B506" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C506" s="2"/>
       <c r="D506" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="E506" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="H506" t="s">
         <v>18</v>
@@ -12930,28 +12945,28 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="B507" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="C507" s="2"/>
       <c r="D507" t="s">
-        <v>22</v>
+        <v>518</v>
       </c>
       <c r="E507" t="s">
-        <v>22</v>
+        <v>518</v>
       </c>
       <c r="H507" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B508" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C508" s="2"/>
       <c r="D508" t="s">
@@ -12966,10 +12981,10 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B509" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C509" s="2"/>
       <c r="D509" t="s">
@@ -12984,10 +12999,10 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B510" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C510" s="2"/>
       <c r="D510" t="s">
@@ -13002,10 +13017,10 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B511" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C511" s="2"/>
       <c r="D511" t="s">
@@ -13020,19 +13035,17 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="B512" t="s">
-        <v>524</v>
-      </c>
-      <c r="C512" t="s">
-        <v>151</v>
-      </c>
+        <v>520</v>
+      </c>
+      <c r="C512" s="2"/>
       <c r="D512" t="s">
-        <v>525</v>
+        <v>22</v>
       </c>
       <c r="E512" t="s">
-        <v>526</v>
+        <v>22</v>
       </c>
       <c r="H512" t="s">
         <v>12</v>
@@ -13040,19 +13053,19 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
+        <v>521</v>
+      </c>
+      <c r="B513" t="s">
+        <v>522</v>
+      </c>
+      <c r="C513" t="s">
+        <v>151</v>
+      </c>
+      <c r="D513" t="s">
         <v>523</v>
       </c>
-      <c r="B513" t="s">
+      <c r="E513" t="s">
         <v>524</v>
-      </c>
-      <c r="C513" t="s">
-        <v>148</v>
-      </c>
-      <c r="D513" t="s">
-        <v>525</v>
-      </c>
-      <c r="E513" t="s">
-        <v>526</v>
       </c>
       <c r="H513" t="s">
         <v>12</v>
@@ -13060,17 +13073,19 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B514" t="s">
-        <v>528</v>
-      </c>
-      <c r="C514" s="2"/>
+        <v>522</v>
+      </c>
+      <c r="C514" t="s">
+        <v>148</v>
+      </c>
       <c r="D514" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="E514" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="H514" t="s">
         <v>12</v>
@@ -13078,17 +13093,17 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B515" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C515" s="2"/>
       <c r="D515" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E515" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H515" t="s">
         <v>12</v>
@@ -13096,17 +13111,17 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B516" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C516" s="2"/>
       <c r="D516" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E516" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H516" t="s">
         <v>12</v>
@@ -13114,61 +13129,53 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B517" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C517" s="2"/>
       <c r="D517" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E517" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="H517" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="518" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="4" t="s">
-        <v>815</v>
-      </c>
-      <c r="B518" s="4" t="s">
-        <v>816</v>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A518" t="s">
+        <v>525</v>
+      </c>
+      <c r="B518" t="s">
+        <v>526</v>
       </c>
       <c r="C518" s="2"/>
-      <c r="D518" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="E518" s="4" t="s">
-        <v>818</v>
-      </c>
-      <c r="F518" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="G518" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="H518" s="4" t="s">
-        <v>18</v>
+      <c r="D518" t="s">
+        <v>527</v>
+      </c>
+      <c r="E518" t="s">
+        <v>527</v>
+      </c>
+      <c r="H518" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="519" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A519" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B519" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C519" s="2"/>
+      <c r="D519" s="4" t="s">
         <v>815</v>
       </c>
-      <c r="B519" s="4" t="s">
+      <c r="E519" s="4" t="s">
         <v>816</v>
-      </c>
-      <c r="C519" s="4" t="s">
-        <v>819</v>
-      </c>
-      <c r="D519" s="4" t="s">
-        <v>817</v>
-      </c>
-      <c r="E519" s="4" t="s">
-        <v>818</v>
       </c>
       <c r="F519" s="4" t="s">
         <v>49</v>
@@ -13180,30 +13187,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A520" t="s">
-        <v>530</v>
-      </c>
-      <c r="B520" t="s">
-        <v>531</v>
-      </c>
-      <c r="C520" s="2"/>
-      <c r="D520" t="s">
-        <v>22</v>
-      </c>
-      <c r="E520" t="s">
-        <v>22</v>
-      </c>
-      <c r="H520" t="s">
-        <v>12</v>
+    <row r="520" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="4" t="s">
+        <v>813</v>
+      </c>
+      <c r="B520" s="4" t="s">
+        <v>814</v>
+      </c>
+      <c r="C520" s="4" t="s">
+        <v>817</v>
+      </c>
+      <c r="D520" s="4" t="s">
+        <v>815</v>
+      </c>
+      <c r="E520" s="4" t="s">
+        <v>816</v>
+      </c>
+      <c r="F520" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G520" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H520" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B521" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C521" s="2"/>
       <c r="D521" t="s">
@@ -13218,10 +13233,10 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B522" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C522" s="2"/>
       <c r="D522" t="s">
@@ -13236,35 +13251,35 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="B523" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="C523" s="2"/>
       <c r="D523" t="s">
-        <v>534</v>
+        <v>22</v>
       </c>
       <c r="E523" t="s">
-        <v>535</v>
+        <v>22</v>
       </c>
       <c r="H523" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B524" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="C524" s="2"/>
       <c r="D524" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="E524" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H524" t="s">
         <v>18</v>
@@ -13272,17 +13287,17 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B525" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C525" s="2"/>
       <c r="D525" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="E525" t="s">
-        <v>48</v>
+        <v>533</v>
       </c>
       <c r="H525" t="s">
         <v>18</v>
@@ -13290,14 +13305,14 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B526" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C526" s="2"/>
       <c r="D526" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E526" t="s">
         <v>48</v>
@@ -13308,28 +13323,28 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="B527" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="C527" s="2"/>
       <c r="D527" t="s">
-        <v>22</v>
+        <v>536</v>
       </c>
       <c r="E527" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="H527" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B528" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C528" s="2"/>
       <c r="D528" t="s">
@@ -13344,19 +13359,17 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="B529" t="s">
-        <v>542</v>
-      </c>
-      <c r="C529" t="s">
-        <v>543</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="C529" s="2"/>
       <c r="D529" t="s">
-        <v>544</v>
+        <v>22</v>
       </c>
       <c r="E529" t="s">
-        <v>545</v>
+        <v>22</v>
       </c>
       <c r="H529" t="s">
         <v>12</v>
@@ -13364,17 +13377,19 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
+        <v>539</v>
+      </c>
+      <c r="B530" t="s">
+        <v>540</v>
+      </c>
+      <c r="C530" t="s">
         <v>541</v>
       </c>
-      <c r="B530" t="s">
+      <c r="D530" t="s">
         <v>542</v>
       </c>
-      <c r="C530" s="2"/>
-      <c r="D530" t="s">
-        <v>544</v>
-      </c>
       <c r="E530" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="H530" t="s">
         <v>12</v>
@@ -13382,17 +13397,17 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="B531" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="C531" s="2"/>
       <c r="D531" t="s">
-        <v>22</v>
+        <v>542</v>
       </c>
       <c r="E531" t="s">
-        <v>22</v>
+        <v>543</v>
       </c>
       <c r="H531" t="s">
         <v>12</v>
@@ -13400,10 +13415,10 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B532" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C532" s="2"/>
       <c r="D532" t="s">
@@ -13418,10 +13433,10 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B533" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="C533" s="2"/>
       <c r="D533" t="s">
@@ -13436,10 +13451,10 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B534" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="C534" s="2"/>
       <c r="D534" t="s">
@@ -13454,35 +13469,35 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B535" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="C535" s="2"/>
       <c r="D535" t="s">
-        <v>552</v>
+        <v>22</v>
       </c>
       <c r="E535" t="s">
-        <v>552</v>
+        <v>22</v>
       </c>
       <c r="H535" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B536" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C536" s="2"/>
       <c r="D536" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E536" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H536" t="s">
         <v>163</v>
@@ -13490,35 +13505,35 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="B537" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="C537" s="2"/>
       <c r="D537" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="E537" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H537" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B538" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C538" s="2"/>
       <c r="D538" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E538" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H538" t="s">
         <v>12</v>
@@ -13526,17 +13541,17 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B539" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C539" s="2"/>
       <c r="D539" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E539" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="H539" t="s">
         <v>12</v>
@@ -13544,59 +13559,57 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="B540" t="s">
-        <v>557</v>
-      </c>
-      <c r="C540" t="s">
-        <v>349</v>
-      </c>
+        <v>552</v>
+      </c>
+      <c r="C540" s="2"/>
       <c r="D540" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="E540" t="s">
-        <v>559</v>
-      </c>
-      <c r="H540" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="H540" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>554</v>
+      </c>
+      <c r="B541" t="s">
+        <v>555</v>
+      </c>
+      <c r="C541" t="s">
+        <v>349</v>
+      </c>
+      <c r="D541" t="s">
         <v>556</v>
       </c>
-      <c r="B541" t="s">
+      <c r="E541" t="s">
         <v>557</v>
       </c>
-      <c r="C541" t="s">
-        <v>560</v>
-      </c>
-      <c r="D541" t="s">
-        <v>558</v>
-      </c>
-      <c r="E541" t="s">
-        <v>559</v>
-      </c>
-      <c r="H541" t="s">
-        <v>18</v>
+      <c r="H541" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>554</v>
+      </c>
+      <c r="B542" t="s">
+        <v>555</v>
+      </c>
+      <c r="C542" t="s">
+        <v>558</v>
+      </c>
+      <c r="D542" t="s">
         <v>556</v>
       </c>
-      <c r="B542" t="s">
+      <c r="E542" t="s">
         <v>557</v>
-      </c>
-      <c r="C542" t="s">
-        <v>113</v>
-      </c>
-      <c r="D542" t="s">
-        <v>558</v>
-      </c>
-      <c r="E542" t="s">
-        <v>559</v>
       </c>
       <c r="H542" t="s">
         <v>18</v>
@@ -13604,19 +13617,19 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>554</v>
+      </c>
+      <c r="B543" t="s">
+        <v>555</v>
+      </c>
+      <c r="C543" t="s">
+        <v>113</v>
+      </c>
+      <c r="D543" t="s">
         <v>556</v>
       </c>
-      <c r="B543" t="s">
+      <c r="E543" t="s">
         <v>557</v>
-      </c>
-      <c r="C543" t="s">
-        <v>350</v>
-      </c>
-      <c r="D543" t="s">
-        <v>558</v>
-      </c>
-      <c r="E543" t="s">
-        <v>559</v>
       </c>
       <c r="H543" t="s">
         <v>18</v>
@@ -13624,19 +13637,19 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>554</v>
+      </c>
+      <c r="B544" t="s">
+        <v>555</v>
+      </c>
+      <c r="C544" t="s">
+        <v>350</v>
+      </c>
+      <c r="D544" t="s">
         <v>556</v>
       </c>
-      <c r="B544" t="s">
+      <c r="E544" t="s">
         <v>557</v>
-      </c>
-      <c r="C544" t="s">
-        <v>561</v>
-      </c>
-      <c r="D544" t="s">
-        <v>558</v>
-      </c>
-      <c r="E544" t="s">
-        <v>559</v>
       </c>
       <c r="H544" t="s">
         <v>18</v>
@@ -13644,19 +13657,19 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>554</v>
+      </c>
+      <c r="B545" t="s">
+        <v>555</v>
+      </c>
+      <c r="C545" t="s">
+        <v>559</v>
+      </c>
+      <c r="D545" t="s">
         <v>556</v>
       </c>
-      <c r="B545" t="s">
+      <c r="E545" t="s">
         <v>557</v>
-      </c>
-      <c r="C545" t="s">
-        <v>562</v>
-      </c>
-      <c r="D545" t="s">
-        <v>558</v>
-      </c>
-      <c r="E545" t="s">
-        <v>559</v>
       </c>
       <c r="H545" t="s">
         <v>18</v>
@@ -13664,39 +13677,39 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>554</v>
+      </c>
+      <c r="B546" t="s">
+        <v>555</v>
+      </c>
+      <c r="C546" t="s">
+        <v>560</v>
+      </c>
+      <c r="D546" t="s">
         <v>556</v>
       </c>
-      <c r="B546" t="s">
+      <c r="E546" t="s">
         <v>557</v>
       </c>
-      <c r="C546" t="s">
-        <v>402</v>
-      </c>
-      <c r="D546" t="s">
-        <v>558</v>
-      </c>
-      <c r="E546" t="s">
-        <v>559</v>
-      </c>
-      <c r="H546" s="3" t="s">
-        <v>12</v>
+      <c r="H546" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
+        <v>554</v>
+      </c>
+      <c r="B547" t="s">
+        <v>555</v>
+      </c>
+      <c r="C547" t="s">
+        <v>402</v>
+      </c>
+      <c r="D547" t="s">
         <v>556</v>
       </c>
-      <c r="B547" t="s">
+      <c r="E547" t="s">
         <v>557</v>
-      </c>
-      <c r="C547" t="s">
-        <v>563</v>
-      </c>
-      <c r="D547" t="s">
-        <v>558</v>
-      </c>
-      <c r="E547" t="s">
-        <v>559</v>
       </c>
       <c r="H547" s="3" t="s">
         <v>12</v>
@@ -13704,19 +13717,19 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
+        <v>554</v>
+      </c>
+      <c r="B548" t="s">
+        <v>555</v>
+      </c>
+      <c r="C548" t="s">
+        <v>561</v>
+      </c>
+      <c r="D548" t="s">
         <v>556</v>
       </c>
-      <c r="B548" t="s">
+      <c r="E548" t="s">
         <v>557</v>
-      </c>
-      <c r="C548" t="s">
-        <v>564</v>
-      </c>
-      <c r="D548" t="s">
-        <v>558</v>
-      </c>
-      <c r="E548" t="s">
-        <v>559</v>
       </c>
       <c r="H548" s="3" t="s">
         <v>12</v>
@@ -13724,19 +13737,19 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
+        <v>554</v>
+      </c>
+      <c r="B549" t="s">
+        <v>555</v>
+      </c>
+      <c r="C549" t="s">
+        <v>562</v>
+      </c>
+      <c r="D549" t="s">
         <v>556</v>
       </c>
-      <c r="B549" t="s">
+      <c r="E549" t="s">
         <v>557</v>
-      </c>
-      <c r="C549" t="s">
-        <v>565</v>
-      </c>
-      <c r="D549" t="s">
-        <v>558</v>
-      </c>
-      <c r="E549" t="s">
-        <v>559</v>
       </c>
       <c r="H549" s="3" t="s">
         <v>12</v>
@@ -13744,19 +13757,19 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
+        <v>554</v>
+      </c>
+      <c r="B550" t="s">
+        <v>555</v>
+      </c>
+      <c r="C550" t="s">
+        <v>563</v>
+      </c>
+      <c r="D550" t="s">
         <v>556</v>
       </c>
-      <c r="B550" t="s">
+      <c r="E550" t="s">
         <v>557</v>
-      </c>
-      <c r="C550" t="s">
-        <v>75</v>
-      </c>
-      <c r="D550" t="s">
-        <v>558</v>
-      </c>
-      <c r="E550" t="s">
-        <v>559</v>
       </c>
       <c r="H550" s="3" t="s">
         <v>12</v>
@@ -13764,19 +13777,19 @@
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
+        <v>554</v>
+      </c>
+      <c r="B551" t="s">
+        <v>555</v>
+      </c>
+      <c r="C551" t="s">
+        <v>75</v>
+      </c>
+      <c r="D551" t="s">
         <v>556</v>
       </c>
-      <c r="B551" t="s">
+      <c r="E551" t="s">
         <v>557</v>
-      </c>
-      <c r="C551" t="s">
-        <v>43</v>
-      </c>
-      <c r="D551" t="s">
-        <v>558</v>
-      </c>
-      <c r="E551" t="s">
-        <v>559</v>
       </c>
       <c r="H551" s="3" t="s">
         <v>12</v>
@@ -13784,34 +13797,36 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B552" t="s">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="C552" t="s">
-        <v>568</v>
+        <v>43</v>
       </c>
       <c r="D552" t="s">
-        <v>569</v>
+        <v>556</v>
       </c>
       <c r="E552" t="s">
-        <v>91</v>
-      </c>
-      <c r="H552" t="s">
+        <v>557</v>
+      </c>
+      <c r="H552" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
+        <v>564</v>
+      </c>
+      <c r="B553" t="s">
+        <v>565</v>
+      </c>
+      <c r="C553" t="s">
         <v>566</v>
       </c>
-      <c r="B553" t="s">
+      <c r="D553" t="s">
         <v>567</v>
-      </c>
-      <c r="C553" s="2"/>
-      <c r="D553" t="s">
-        <v>569</v>
       </c>
       <c r="E553" t="s">
         <v>91</v>
@@ -13822,17 +13837,17 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B554" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="C554" s="2"/>
       <c r="D554" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="E554" t="s">
-        <v>572</v>
+        <v>91</v>
       </c>
       <c r="H554" t="s">
         <v>12</v>
@@ -13840,17 +13855,17 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B555" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C555" s="2"/>
       <c r="D555" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E555" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="H555" t="s">
         <v>12</v>
@@ -13858,17 +13873,17 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="B556" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="C556" s="2"/>
       <c r="D556" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="E556" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="H556" t="s">
         <v>12</v>
@@ -13876,17 +13891,17 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B557" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C557" s="2"/>
       <c r="D557" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E557" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H557" t="s">
         <v>12</v>
@@ -13894,17 +13909,17 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B558" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="C558" s="2"/>
       <c r="D558" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E558" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="H558" t="s">
         <v>12</v>
@@ -13912,19 +13927,17 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B559" t="s">
-        <v>578</v>
-      </c>
-      <c r="C559" t="s">
-        <v>579</v>
-      </c>
+        <v>572</v>
+      </c>
+      <c r="C559" s="2"/>
       <c r="D559" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="E559" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
       <c r="H559" t="s">
         <v>12</v>
@@ -13932,17 +13945,19 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
+        <v>575</v>
+      </c>
+      <c r="B560" t="s">
+        <v>576</v>
+      </c>
+      <c r="C560" t="s">
         <v>577</v>
       </c>
-      <c r="B560" t="s">
+      <c r="D560" t="s">
         <v>578</v>
       </c>
-      <c r="C560" s="2"/>
-      <c r="D560" t="s">
-        <v>580</v>
-      </c>
       <c r="E560" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H560" t="s">
         <v>12</v>
@@ -13950,17 +13965,17 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B561" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C561" s="2"/>
       <c r="D561" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E561" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H561" t="s">
         <v>12</v>
@@ -13968,17 +13983,17 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B562" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C562" s="2"/>
       <c r="D562" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E562" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H562" t="s">
         <v>12</v>
@@ -13986,17 +14001,17 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B563" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C563" s="2"/>
       <c r="D563" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E563" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H563" t="s">
         <v>12</v>
@@ -14004,17 +14019,17 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B564" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C564" s="2"/>
       <c r="D564" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E564" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H564" t="s">
         <v>12</v>
@@ -14022,17 +14037,17 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B565" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C565" s="2"/>
       <c r="D565" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E565" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H565" t="s">
         <v>12</v>
@@ -14040,17 +14055,17 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B566" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C566" s="2"/>
       <c r="D566" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E566" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H566" t="s">
         <v>12</v>
@@ -14058,17 +14073,17 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B567" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C567" s="2"/>
       <c r="D567" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E567" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H567" t="s">
         <v>12</v>
@@ -14076,17 +14091,17 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B568" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C568" s="2"/>
       <c r="D568" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E568" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H568" t="s">
         <v>12</v>
@@ -14094,17 +14109,17 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B569" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C569" s="2"/>
       <c r="D569" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E569" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H569" t="s">
         <v>12</v>
@@ -14112,17 +14127,17 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B570" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C570" s="2"/>
       <c r="D570" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E570" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H570" t="s">
         <v>12</v>
@@ -14130,17 +14145,17 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B571" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C571" s="2"/>
       <c r="D571" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E571" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H571" t="s">
         <v>12</v>
@@ -14148,17 +14163,17 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B572" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C572" s="2"/>
       <c r="D572" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E572" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H572" t="s">
         <v>12</v>
@@ -14166,17 +14181,17 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B573" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C573" s="2"/>
       <c r="D573" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E573" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H573" t="s">
         <v>12</v>
@@ -14184,17 +14199,17 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B574" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C574" s="2"/>
       <c r="D574" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E574" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H574" t="s">
         <v>12</v>
@@ -14202,17 +14217,17 @@
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B575" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="C575" s="2"/>
       <c r="D575" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E575" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="H575" t="s">
         <v>12</v>
@@ -14220,19 +14235,17 @@
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="B576" t="s">
-        <v>583</v>
-      </c>
-      <c r="C576" t="s">
-        <v>584</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="C576" s="2"/>
       <c r="D576" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="E576" t="s">
-        <v>22</v>
+        <v>579</v>
       </c>
       <c r="H576" t="s">
         <v>12</v>
@@ -14240,14 +14253,16 @@
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
+        <v>580</v>
+      </c>
+      <c r="B577" t="s">
+        <v>581</v>
+      </c>
+      <c r="C577" t="s">
         <v>582</v>
       </c>
-      <c r="B577" t="s">
+      <c r="D577" t="s">
         <v>583</v>
-      </c>
-      <c r="C577" s="2"/>
-      <c r="D577" t="s">
-        <v>585</v>
       </c>
       <c r="E577" t="s">
         <v>22</v>
@@ -14258,16 +14273,14 @@
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B578" t="s">
+        <v>581</v>
+      </c>
+      <c r="C578" s="2"/>
+      <c r="D578" t="s">
         <v>583</v>
-      </c>
-      <c r="C578" t="s">
-        <v>586</v>
-      </c>
-      <c r="D578" t="s">
-        <v>585</v>
       </c>
       <c r="E578" t="s">
         <v>22</v>
@@ -14278,17 +14291,19 @@
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="B579" t="s">
-        <v>588</v>
-      </c>
-      <c r="C579" s="2"/>
+        <v>581</v>
+      </c>
+      <c r="C579" t="s">
+        <v>584</v>
+      </c>
       <c r="D579" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="E579" t="s">
-        <v>589</v>
+        <v>22</v>
       </c>
       <c r="H579" t="s">
         <v>12</v>
@@ -14296,17 +14311,17 @@
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B580" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="C580" s="2"/>
       <c r="D580" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="E580" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="H580" t="s">
         <v>12</v>
@@ -14314,35 +14329,35 @@
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="B581" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="E581" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="H581" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B582" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C582" s="2"/>
       <c r="D582" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E582" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H582" t="s">
         <v>163</v>
@@ -14350,17 +14365,17 @@
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B583" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C583" s="2"/>
       <c r="D583" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E583" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="H583" t="s">
         <v>163</v>
@@ -14368,28 +14383,28 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="B584" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="C584" s="2"/>
       <c r="D584" t="s">
-        <v>22</v>
+        <v>590</v>
       </c>
       <c r="E584" t="s">
-        <v>22</v>
+        <v>590</v>
       </c>
       <c r="H584" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B585" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C585" s="2"/>
       <c r="D585" t="s">
@@ -14404,10 +14419,10 @@
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B586" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C586" s="2"/>
       <c r="D586" t="s">
@@ -14422,10 +14437,10 @@
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B587" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C587" s="2"/>
       <c r="D587" t="s">
@@ -14440,10 +14455,10 @@
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B588" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="C588" s="2"/>
       <c r="D588" t="s">
@@ -14458,17 +14473,17 @@
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="B589" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="C589" s="2"/>
       <c r="D589" t="s">
-        <v>597</v>
+        <v>22</v>
       </c>
       <c r="E589" t="s">
-        <v>598</v>
+        <v>22</v>
       </c>
       <c r="H589" t="s">
         <v>12</v>
@@ -14476,17 +14491,17 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B590" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="C590" s="2"/>
       <c r="D590" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E590" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="H590" t="s">
         <v>12</v>
@@ -14494,35 +14509,35 @@
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B591" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="C591" s="2"/>
       <c r="D591" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="E591" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H591" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B592" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="C592" s="2"/>
       <c r="D592" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E592" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H592" t="s">
         <v>163</v>
@@ -14530,74 +14545,66 @@
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="B593" t="s">
-        <v>603</v>
-      </c>
-      <c r="C593" t="s">
-        <v>604</v>
-      </c>
+        <v>598</v>
+      </c>
+      <c r="C593" s="2"/>
       <c r="D593" t="s">
-        <v>791</v>
+        <v>599</v>
       </c>
       <c r="E593" t="s">
-        <v>605</v>
-      </c>
-      <c r="F593" t="s">
-        <v>606</v>
-      </c>
-      <c r="G593" t="s">
-        <v>49</v>
+        <v>599</v>
       </c>
       <c r="H593" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
+        <v>600</v>
+      </c>
+      <c r="B594" t="s">
+        <v>601</v>
+      </c>
+      <c r="C594" t="s">
         <v>602</v>
       </c>
-      <c r="B594" t="s">
+      <c r="D594" t="s">
+        <v>789</v>
+      </c>
+      <c r="E594" t="s">
         <v>603</v>
       </c>
-      <c r="C594" t="s">
-        <v>607</v>
-      </c>
-      <c r="D594" t="s">
-        <v>791</v>
-      </c>
-      <c r="E594" t="s">
-        <v>605</v>
-      </c>
       <c r="F594" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G594" t="s">
         <v>49</v>
       </c>
-      <c r="H594" s="3" t="s">
-        <v>12</v>
+      <c r="H594" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B595" t="s">
+        <v>601</v>
+      </c>
+      <c r="C595" t="s">
+        <v>605</v>
+      </c>
+      <c r="D595" t="s">
+        <v>789</v>
+      </c>
+      <c r="E595" t="s">
         <v>603</v>
       </c>
-      <c r="C595" t="s">
-        <v>608</v>
-      </c>
-      <c r="D595" t="s">
-        <v>791</v>
-      </c>
-      <c r="E595" t="s">
-        <v>605</v>
-      </c>
       <c r="F595" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G595" t="s">
         <v>49</v>
@@ -14608,22 +14615,22 @@
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B596" t="s">
+        <v>601</v>
+      </c>
+      <c r="C596" t="s">
+        <v>606</v>
+      </c>
+      <c r="D596" t="s">
+        <v>789</v>
+      </c>
+      <c r="E596" t="s">
         <v>603</v>
       </c>
-      <c r="C596" t="s">
-        <v>401</v>
-      </c>
-      <c r="D596" t="s">
-        <v>791</v>
-      </c>
-      <c r="E596" t="s">
-        <v>605</v>
-      </c>
       <c r="F596" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G596" t="s">
         <v>49</v>
@@ -14634,22 +14641,22 @@
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B597" t="s">
+        <v>601</v>
+      </c>
+      <c r="C597" t="s">
+        <v>401</v>
+      </c>
+      <c r="D597" t="s">
+        <v>789</v>
+      </c>
+      <c r="E597" t="s">
         <v>603</v>
       </c>
-      <c r="C597" t="s">
-        <v>609</v>
-      </c>
-      <c r="D597" t="s">
-        <v>791</v>
-      </c>
-      <c r="E597" t="s">
-        <v>605</v>
-      </c>
       <c r="F597" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G597" t="s">
         <v>49</v>
@@ -14660,61 +14667,69 @@
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="B598" t="s">
+        <v>601</v>
+      </c>
+      <c r="C598" t="s">
+        <v>607</v>
+      </c>
+      <c r="D598" t="s">
+        <v>789</v>
+      </c>
+      <c r="E598" t="s">
         <v>603</v>
       </c>
-      <c r="C598" t="s">
-        <v>610</v>
-      </c>
-      <c r="D598" t="s">
-        <v>791</v>
-      </c>
-      <c r="E598" t="s">
-        <v>605</v>
-      </c>
       <c r="F598" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="G598" t="s">
         <v>49</v>
       </c>
-      <c r="H598" t="s">
-        <v>18</v>
+      <c r="H598" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
-        <v>611</v>
+        <v>600</v>
       </c>
       <c r="B599" t="s">
-        <v>612</v>
-      </c>
-      <c r="C599" s="2"/>
+        <v>601</v>
+      </c>
+      <c r="C599" t="s">
+        <v>608</v>
+      </c>
       <c r="D599" t="s">
-        <v>601</v>
+        <v>789</v>
       </c>
       <c r="E599" t="s">
-        <v>601</v>
+        <v>603</v>
+      </c>
+      <c r="F599" t="s">
+        <v>604</v>
+      </c>
+      <c r="G599" t="s">
+        <v>49</v>
       </c>
       <c r="H599" t="s">
-        <v>163</v>
+        <v>18</v>
       </c>
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B600" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="C600" s="2"/>
       <c r="D600" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E600" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="H600" t="s">
         <v>163</v>
@@ -14722,34 +14737,34 @@
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="B601" t="s">
-        <v>614</v>
-      </c>
-      <c r="C601" t="s">
-        <v>615</v>
-      </c>
+        <v>610</v>
+      </c>
+      <c r="C601" s="2"/>
       <c r="D601" t="s">
-        <v>616</v>
+        <v>599</v>
       </c>
       <c r="E601" t="s">
-        <v>138</v>
+        <v>599</v>
       </c>
       <c r="H601" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
+        <v>611</v>
+      </c>
+      <c r="B602" t="s">
+        <v>612</v>
+      </c>
+      <c r="C602" t="s">
         <v>613</v>
       </c>
-      <c r="B602" t="s">
+      <c r="D602" t="s">
         <v>614</v>
-      </c>
-      <c r="C602" s="2"/>
-      <c r="D602" t="s">
-        <v>616</v>
       </c>
       <c r="E602" t="s">
         <v>138</v>
@@ -14760,14 +14775,14 @@
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B603" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C603" s="2"/>
       <c r="D603" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E603" t="s">
         <v>138</v>
@@ -14778,14 +14793,14 @@
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B604" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C604" s="2"/>
       <c r="D604" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E604" t="s">
         <v>138</v>
@@ -14796,14 +14811,14 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B605" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C605" s="2"/>
       <c r="D605" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E605" t="s">
         <v>138</v>
@@ -14814,14 +14829,14 @@
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B606" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="C606" s="2"/>
       <c r="D606" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E606" t="s">
         <v>138</v>
@@ -14832,19 +14847,17 @@
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="B607" t="s">
-        <v>619</v>
-      </c>
-      <c r="C607" t="s">
-        <v>620</v>
-      </c>
+        <v>612</v>
+      </c>
+      <c r="C607" s="2"/>
       <c r="D607" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E607" t="s">
-        <v>622</v>
+        <v>138</v>
       </c>
       <c r="H607" t="s">
         <v>12</v>
@@ -14852,17 +14865,19 @@
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
+        <v>616</v>
+      </c>
+      <c r="B608" t="s">
+        <v>617</v>
+      </c>
+      <c r="C608" t="s">
         <v>618</v>
       </c>
-      <c r="B608" t="s">
+      <c r="D608" t="s">
         <v>619</v>
       </c>
-      <c r="C608" s="2"/>
-      <c r="D608" t="s">
-        <v>621</v>
-      </c>
       <c r="E608" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H608" t="s">
         <v>12</v>
@@ -14870,17 +14885,17 @@
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="B609" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="C609" s="2"/>
       <c r="D609" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E609" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="H609" t="s">
         <v>12</v>
@@ -14888,17 +14903,17 @@
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
       <c r="B610" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="C610" s="2"/>
       <c r="D610" t="s">
-        <v>422</v>
+        <v>619</v>
       </c>
       <c r="E610" t="s">
-        <v>422</v>
+        <v>620</v>
       </c>
       <c r="H610" t="s">
         <v>12</v>
@@ -14906,10 +14921,10 @@
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B611" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C611" s="2"/>
       <c r="D611" t="s">
@@ -14924,10 +14939,10 @@
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B612" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C612" s="2"/>
       <c r="D612" t="s">
@@ -14942,10 +14957,10 @@
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B613" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C613" s="2"/>
       <c r="D613" t="s">
@@ -14960,17 +14975,17 @@
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="B614" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="C614" s="2"/>
       <c r="D614" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="E614" t="s">
-        <v>138</v>
+        <v>422</v>
       </c>
       <c r="H614" t="s">
         <v>12</v>
@@ -14978,10 +14993,10 @@
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B615" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="C615" s="2"/>
       <c r="D615" t="s">
@@ -14996,16 +15011,14 @@
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="B616" t="s">
-        <v>628</v>
-      </c>
-      <c r="C616" t="s">
-        <v>617</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="C616" s="2"/>
       <c r="D616" t="s">
-        <v>629</v>
+        <v>138</v>
       </c>
       <c r="E616" t="s">
         <v>138</v>
@@ -15016,16 +15029,16 @@
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
+        <v>625</v>
+      </c>
+      <c r="B617" t="s">
+        <v>626</v>
+      </c>
+      <c r="C617" t="s">
+        <v>615</v>
+      </c>
+      <c r="D617" t="s">
         <v>627</v>
-      </c>
-      <c r="B617" t="s">
-        <v>628</v>
-      </c>
-      <c r="C617" t="s">
-        <v>630</v>
-      </c>
-      <c r="D617" t="s">
-        <v>629</v>
       </c>
       <c r="E617" t="s">
         <v>138</v>
@@ -15036,16 +15049,16 @@
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
+        <v>625</v>
+      </c>
+      <c r="B618" t="s">
+        <v>626</v>
+      </c>
+      <c r="C618" t="s">
+        <v>628</v>
+      </c>
+      <c r="D618" t="s">
         <v>627</v>
-      </c>
-      <c r="B618" t="s">
-        <v>628</v>
-      </c>
-      <c r="C618" t="s">
-        <v>416</v>
-      </c>
-      <c r="D618" t="s">
-        <v>629</v>
       </c>
       <c r="E618" t="s">
         <v>138</v>
@@ -15056,14 +15069,16 @@
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
+        <v>625</v>
+      </c>
+      <c r="B619" t="s">
+        <v>626</v>
+      </c>
+      <c r="C619" t="s">
+        <v>416</v>
+      </c>
+      <c r="D619" t="s">
         <v>627</v>
-      </c>
-      <c r="B619" t="s">
-        <v>628</v>
-      </c>
-      <c r="C619" s="2"/>
-      <c r="D619" t="s">
-        <v>629</v>
       </c>
       <c r="E619" t="s">
         <v>138</v>
@@ -15074,14 +15089,14 @@
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B620" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C620" s="2"/>
       <c r="D620" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E620" t="s">
         <v>138</v>
@@ -15092,14 +15107,14 @@
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B621" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="C621" s="2"/>
       <c r="D621" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="E621" t="s">
         <v>138</v>
@@ -15110,17 +15125,17 @@
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B622" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" t="s">
-        <v>22</v>
+        <v>627</v>
       </c>
       <c r="E622" t="s">
-        <v>22</v>
+        <v>138</v>
       </c>
       <c r="H622" t="s">
         <v>12</v>
@@ -15128,10 +15143,10 @@
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B623" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C623" s="2"/>
       <c r="D623" t="s">
@@ -15146,10 +15161,10 @@
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B624" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C624" s="2"/>
       <c r="D624" t="s">
@@ -15164,10 +15179,10 @@
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B625" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C625" s="2"/>
       <c r="D625" t="s">
@@ -15182,10 +15197,10 @@
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B626" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="C626" s="2"/>
       <c r="D626" t="s">
@@ -15200,17 +15215,17 @@
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B627" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="C627" s="2"/>
       <c r="D627" t="s">
-        <v>635</v>
+        <v>22</v>
       </c>
       <c r="E627" t="s">
-        <v>636</v>
+        <v>22</v>
       </c>
       <c r="H627" t="s">
         <v>12</v>
@@ -15218,17 +15233,17 @@
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B628" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="C628" s="2"/>
       <c r="D628" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E628" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="H628" t="s">
         <v>12</v>
@@ -15236,17 +15251,17 @@
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
       <c r="B629" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C629" s="2"/>
       <c r="D629" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="E629" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="H629" t="s">
         <v>12</v>
@@ -15254,17 +15269,17 @@
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B630" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C630" s="2"/>
       <c r="D630" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E630" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H630" t="s">
         <v>12</v>
@@ -15272,17 +15287,17 @@
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B631" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C631" s="2"/>
       <c r="D631" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E631" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="H631" t="s">
         <v>12</v>
@@ -15290,17 +15305,17 @@
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="B632" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="C632" s="2"/>
       <c r="D632" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="E632" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H632" t="s">
         <v>12</v>
@@ -15308,17 +15323,17 @@
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="B633" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C633" s="2"/>
       <c r="D633" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E633" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="H633" t="s">
         <v>12</v>
@@ -15326,37 +15341,37 @@
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="B634" t="s">
-        <v>644</v>
-      </c>
-      <c r="C634" t="s">
-        <v>329</v>
-      </c>
+        <v>639</v>
+      </c>
+      <c r="C634" s="2"/>
       <c r="D634" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="E634" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="H634" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
+        <v>641</v>
+      </c>
+      <c r="B635" t="s">
+        <v>642</v>
+      </c>
+      <c r="C635" t="s">
+        <v>329</v>
+      </c>
+      <c r="D635" t="s">
         <v>643</v>
       </c>
-      <c r="B635" t="s">
+      <c r="E635" t="s">
         <v>644</v>
-      </c>
-      <c r="C635" s="2"/>
-      <c r="D635" t="s">
-        <v>645</v>
-      </c>
-      <c r="E635" t="s">
-        <v>646</v>
       </c>
       <c r="H635" t="s">
         <v>18</v>
@@ -15364,17 +15379,17 @@
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B636" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C636" s="2"/>
       <c r="D636" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E636" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H636" t="s">
         <v>18</v>
@@ -15382,17 +15397,17 @@
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B637" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C637" s="2"/>
       <c r="D637" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E637" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H637" t="s">
         <v>18</v>
@@ -15400,17 +15415,17 @@
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B638" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C638" s="2"/>
       <c r="D638" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E638" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="H638" t="s">
         <v>18</v>
@@ -15418,28 +15433,28 @@
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="B639" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" t="s">
-        <v>306</v>
+        <v>643</v>
       </c>
       <c r="E639" t="s">
-        <v>306</v>
+        <v>644</v>
       </c>
       <c r="H639" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B640" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C640" s="2"/>
       <c r="D640" t="s">
@@ -15454,17 +15469,17 @@
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B641" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="C641" s="2"/>
       <c r="D641" t="s">
-        <v>652</v>
+        <v>306</v>
       </c>
       <c r="E641" t="s">
-        <v>652</v>
+        <v>306</v>
       </c>
       <c r="H641" t="s">
         <v>12</v>
@@ -15472,17 +15487,17 @@
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B642" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C642" s="2"/>
       <c r="D642" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E642" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H642" t="s">
         <v>12</v>
@@ -15490,17 +15505,17 @@
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="B643" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="C643" s="2"/>
       <c r="D643" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E643" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="H643" t="s">
         <v>12</v>
@@ -15508,17 +15523,17 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="B644" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="C644" s="2"/>
       <c r="D644" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="E644" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H644" t="s">
         <v>12</v>
@@ -15526,17 +15541,17 @@
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B645" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C645" s="2"/>
       <c r="D645" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E645" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H645" t="s">
         <v>12</v>
@@ -15544,17 +15559,17 @@
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B646" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C646" s="2"/>
       <c r="D646" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="E646" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="H646" t="s">
         <v>12</v>
@@ -15562,35 +15577,35 @@
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="B647" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="C647" s="2"/>
       <c r="D647" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="E647" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="H647" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B648" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="C648" s="2"/>
       <c r="D648" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E648" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="H648" t="s">
         <v>163</v>
@@ -15598,47 +15613,41 @@
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="B649" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="C649" s="2"/>
       <c r="D649" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="E649" t="s">
-        <v>662</v>
-      </c>
-      <c r="F649" t="s">
-        <v>663</v>
-      </c>
-      <c r="G649" t="s">
-        <v>664</v>
+        <v>656</v>
       </c>
       <c r="H649" t="s">
-        <v>18</v>
+        <v>163</v>
       </c>
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="B650" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="C650" s="2"/>
       <c r="D650" t="s">
+        <v>659</v>
+      </c>
+      <c r="E650" t="s">
+        <v>660</v>
+      </c>
+      <c r="F650" t="s">
         <v>661</v>
       </c>
-      <c r="E650" t="s">
+      <c r="G650" t="s">
         <v>662</v>
-      </c>
-      <c r="F650" t="s">
-        <v>663</v>
-      </c>
-      <c r="G650" t="s">
-        <v>664</v>
       </c>
       <c r="H650" t="s">
         <v>18</v>
@@ -15646,35 +15655,41 @@
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
-        <v>665</v>
+        <v>657</v>
       </c>
       <c r="B651" t="s">
-        <v>666</v>
+        <v>658</v>
       </c>
       <c r="C651" s="2"/>
       <c r="D651" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
       <c r="E651" t="s">
-        <v>668</v>
+        <v>660</v>
+      </c>
+      <c r="F651" t="s">
+        <v>661</v>
+      </c>
+      <c r="G651" t="s">
+        <v>662</v>
       </c>
       <c r="H651" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B652" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C652" s="2"/>
       <c r="D652" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E652" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H652" t="s">
         <v>12</v>
@@ -15682,59 +15697,53 @@
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B653" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="C653" s="2"/>
       <c r="D653" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="E653" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="H653" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="654" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A654" s="4" t="s">
-        <v>820</v>
-      </c>
-      <c r="B654" s="4" t="s">
-        <v>821</v>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A654" t="s">
+        <v>663</v>
+      </c>
+      <c r="B654" t="s">
+        <v>664</v>
       </c>
       <c r="C654" s="2"/>
-      <c r="D654" s="4" t="s">
-        <v>822</v>
-      </c>
-      <c r="E654" s="4" t="s">
-        <v>823</v>
-      </c>
-      <c r="F654" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="G654" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H654" s="4" t="s">
+      <c r="D654" t="s">
+        <v>665</v>
+      </c>
+      <c r="E654" t="s">
+        <v>666</v>
+      </c>
+      <c r="H654" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="655" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A655" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B655" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C655" s="2"/>
       <c r="D655" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E655" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F655" s="4" t="s">
         <v>120</v>
@@ -15748,17 +15757,17 @@
     </row>
     <row r="656" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A656" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B656" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C656" s="2"/>
       <c r="D656" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E656" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F656" s="4" t="s">
         <v>120</v>
@@ -15772,17 +15781,17 @@
     </row>
     <row r="657" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A657" s="4" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B657" s="4" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C657" s="2"/>
       <c r="D657" s="4" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="E657" s="4" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="F657" s="4" t="s">
         <v>120</v>
@@ -15794,38 +15803,42 @@
         <v>12</v>
       </c>
     </row>
-    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A658" t="s">
-        <v>669</v>
-      </c>
-      <c r="B658" t="s">
-        <v>670</v>
-      </c>
-      <c r="C658" t="s">
-        <v>181</v>
-      </c>
-      <c r="D658" t="s">
-        <v>671</v>
-      </c>
-      <c r="E658" t="s">
-        <v>340</v>
-      </c>
-      <c r="H658" t="s">
+    <row r="658" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A658" s="4" t="s">
+        <v>818</v>
+      </c>
+      <c r="B658" s="4" t="s">
+        <v>819</v>
+      </c>
+      <c r="C658" s="2"/>
+      <c r="D658" s="4" t="s">
+        <v>820</v>
+      </c>
+      <c r="E658" s="4" t="s">
+        <v>821</v>
+      </c>
+      <c r="F658" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="G658" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H658" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
+        <v>667</v>
+      </c>
+      <c r="B659" t="s">
+        <v>668</v>
+      </c>
+      <c r="C659" t="s">
+        <v>181</v>
+      </c>
+      <c r="D659" t="s">
         <v>669</v>
-      </c>
-      <c r="B659" t="s">
-        <v>670</v>
-      </c>
-      <c r="C659" t="s">
-        <v>649</v>
-      </c>
-      <c r="D659" t="s">
-        <v>671</v>
       </c>
       <c r="E659" t="s">
         <v>340</v>
@@ -15836,35 +15849,37 @@
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="B660" t="s">
-        <v>673</v>
-      </c>
-      <c r="C660" s="2"/>
+        <v>668</v>
+      </c>
+      <c r="C660" t="s">
+        <v>647</v>
+      </c>
       <c r="D660" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="E660" t="s">
-        <v>674</v>
+        <v>340</v>
       </c>
       <c r="H660" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B661" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C661" s="2"/>
       <c r="D661" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="E661" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="H661" t="s">
         <v>163</v>
@@ -15872,28 +15887,28 @@
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B662" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="C662" s="2"/>
       <c r="D662" t="s">
-        <v>22</v>
+        <v>672</v>
       </c>
       <c r="E662" t="s">
-        <v>22</v>
+        <v>672</v>
       </c>
       <c r="H662" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B663" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="C663" s="2"/>
       <c r="D663" t="s">
@@ -15908,35 +15923,35 @@
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="B664" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="C664" s="2"/>
       <c r="D664" t="s">
-        <v>679</v>
+        <v>22</v>
       </c>
       <c r="E664" t="s">
-        <v>679</v>
+        <v>22</v>
       </c>
       <c r="H664" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B665" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C665" s="2"/>
       <c r="D665" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E665" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H665" t="s">
         <v>18</v>
@@ -15944,17 +15959,17 @@
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B666" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="C666" s="2"/>
       <c r="D666" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="E666" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="H666" t="s">
         <v>18</v>
@@ -15962,37 +15977,37 @@
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="B667" t="s">
-        <v>681</v>
-      </c>
-      <c r="C667" t="s">
-        <v>682</v>
-      </c>
+        <v>676</v>
+      </c>
+      <c r="C667" s="2"/>
       <c r="D667" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="E667" t="s">
-        <v>684</v>
+        <v>677</v>
       </c>
       <c r="H667" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
+        <v>678</v>
+      </c>
+      <c r="B668" t="s">
+        <v>679</v>
+      </c>
+      <c r="C668" t="s">
         <v>680</v>
       </c>
-      <c r="B668" t="s">
+      <c r="D668" t="s">
         <v>681</v>
       </c>
-      <c r="C668" s="2"/>
-      <c r="D668" t="s">
-        <v>683</v>
-      </c>
       <c r="E668" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H668" t="s">
         <v>12</v>
@@ -16000,17 +16015,17 @@
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="B669" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="C669" s="2"/>
       <c r="D669" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="E669" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="H669" t="s">
         <v>12</v>
@@ -16018,54 +16033,52 @@
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
+        <v>678</v>
+      </c>
+      <c r="B670" t="s">
+        <v>679</v>
+      </c>
+      <c r="C670" s="2"/>
+      <c r="D670" t="s">
+        <v>681</v>
+      </c>
+      <c r="E670" t="s">
+        <v>682</v>
+      </c>
+      <c r="H670" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A671" t="s">
+        <v>683</v>
+      </c>
+      <c r="B671" t="s">
+        <v>684</v>
+      </c>
+      <c r="C671" t="s">
         <v>685</v>
       </c>
-      <c r="B670" t="s">
+      <c r="D671" t="s">
         <v>686</v>
       </c>
-      <c r="C670" t="s">
-        <v>687</v>
-      </c>
-      <c r="D670" t="s">
-        <v>688</v>
-      </c>
-      <c r="E670" t="s">
-        <v>22</v>
-      </c>
-      <c r="H670" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="671" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A671" t="s">
-        <v>685</v>
-      </c>
-      <c r="B671" t="s">
+      <c r="E671" t="s">
+        <v>22</v>
+      </c>
+      <c r="H671" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A672" t="s">
+        <v>683</v>
+      </c>
+      <c r="B672" t="s">
+        <v>684</v>
+      </c>
+      <c r="C672" s="2"/>
+      <c r="D672" t="s">
         <v>686</v>
-      </c>
-      <c r="C671" s="2"/>
-      <c r="D671" t="s">
-        <v>688</v>
-      </c>
-      <c r="E671" t="s">
-        <v>22</v>
-      </c>
-      <c r="H671" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A672" t="s">
-        <v>689</v>
-      </c>
-      <c r="B672" t="s">
-        <v>690</v>
-      </c>
-      <c r="C672" t="s">
-        <v>25</v>
-      </c>
-      <c r="D672" t="s">
-        <v>691</v>
       </c>
       <c r="E672" t="s">
         <v>22</v>
@@ -16076,16 +16089,16 @@
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
+        <v>687</v>
+      </c>
+      <c r="B673" t="s">
+        <v>688</v>
+      </c>
+      <c r="C673" t="s">
+        <v>25</v>
+      </c>
+      <c r="D673" t="s">
         <v>689</v>
-      </c>
-      <c r="B673" t="s">
-        <v>690</v>
-      </c>
-      <c r="C673" t="s">
-        <v>27</v>
-      </c>
-      <c r="D673" t="s">
-        <v>691</v>
       </c>
       <c r="E673" t="s">
         <v>22</v>
@@ -16096,14 +16109,16 @@
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
+        <v>687</v>
+      </c>
+      <c r="B674" t="s">
+        <v>688</v>
+      </c>
+      <c r="C674" t="s">
+        <v>27</v>
+      </c>
+      <c r="D674" t="s">
         <v>689</v>
-      </c>
-      <c r="B674" t="s">
-        <v>690</v>
-      </c>
-      <c r="C674" s="2"/>
-      <c r="D674" t="s">
-        <v>691</v>
       </c>
       <c r="E674" t="s">
         <v>22</v>
@@ -16114,14 +16129,14 @@
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B675" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C675" s="2"/>
       <c r="D675" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E675" t="s">
         <v>22</v>
@@ -16132,14 +16147,14 @@
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B676" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E676" t="s">
         <v>22</v>
@@ -16150,14 +16165,14 @@
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B677" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C677" s="2"/>
       <c r="D677" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E677" t="s">
         <v>22</v>
@@ -16168,14 +16183,14 @@
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B678" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="E678" t="s">
         <v>22</v>
@@ -16186,19 +16201,17 @@
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="B679" t="s">
-        <v>693</v>
-      </c>
-      <c r="C679" t="s">
-        <v>694</v>
-      </c>
+        <v>688</v>
+      </c>
+      <c r="C679" s="2"/>
       <c r="D679" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="E679" t="s">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="H679" t="s">
         <v>12</v>
@@ -16206,14 +16219,16 @@
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
+        <v>690</v>
+      </c>
+      <c r="B680" t="s">
+        <v>691</v>
+      </c>
+      <c r="C680" t="s">
         <v>692</v>
       </c>
-      <c r="B680" t="s">
+      <c r="D680" t="s">
         <v>693</v>
-      </c>
-      <c r="C680" s="2"/>
-      <c r="D680" t="s">
-        <v>695</v>
       </c>
       <c r="E680" t="s">
         <v>100</v>
@@ -16224,17 +16239,17 @@
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="B681" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C681" s="2"/>
       <c r="D681" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="E681" t="s">
-        <v>698</v>
+        <v>100</v>
       </c>
       <c r="H681" t="s">
         <v>12</v>
@@ -16242,17 +16257,17 @@
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="B682" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C682" s="2"/>
       <c r="D682" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="E682" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="H682" t="s">
         <v>12</v>
@@ -16260,17 +16275,17 @@
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="B683" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="C683" s="2"/>
       <c r="D683" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="E683" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="H683" t="s">
         <v>12</v>
@@ -16278,19 +16293,17 @@
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
+        <v>697</v>
+      </c>
+      <c r="B684" t="s">
+        <v>698</v>
+      </c>
+      <c r="C684" s="2"/>
+      <c r="D684" t="s">
         <v>699</v>
       </c>
-      <c r="B684" t="s">
+      <c r="E684" t="s">
         <v>700</v>
-      </c>
-      <c r="C684" t="s">
-        <v>164</v>
-      </c>
-      <c r="D684" t="s">
-        <v>701</v>
-      </c>
-      <c r="E684" t="s">
-        <v>702</v>
       </c>
       <c r="H684" t="s">
         <v>12</v>
@@ -16298,17 +16311,19 @@
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
+        <v>697</v>
+      </c>
+      <c r="B685" t="s">
+        <v>698</v>
+      </c>
+      <c r="C685" t="s">
+        <v>164</v>
+      </c>
+      <c r="D685" t="s">
         <v>699</v>
       </c>
-      <c r="B685" t="s">
+      <c r="E685" t="s">
         <v>700</v>
-      </c>
-      <c r="C685" s="2"/>
-      <c r="D685" t="s">
-        <v>701</v>
-      </c>
-      <c r="E685" t="s">
-        <v>702</v>
       </c>
       <c r="H685" t="s">
         <v>12</v>
@@ -16316,17 +16331,17 @@
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B686" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="C686" s="2"/>
       <c r="D686" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="E686" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="H686" t="s">
         <v>12</v>
@@ -16334,19 +16349,17 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B687" t="s">
-        <v>704</v>
-      </c>
-      <c r="C687" t="s">
-        <v>705</v>
-      </c>
+        <v>698</v>
+      </c>
+      <c r="C687" s="2"/>
       <c r="D687" t="s">
-        <v>706</v>
+        <v>699</v>
       </c>
       <c r="E687" t="s">
-        <v>707</v>
+        <v>700</v>
       </c>
       <c r="H687" t="s">
         <v>12</v>
@@ -16354,17 +16367,19 @@
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
+        <v>701</v>
+      </c>
+      <c r="B688" t="s">
+        <v>702</v>
+      </c>
+      <c r="C688" t="s">
         <v>703</v>
       </c>
-      <c r="B688" t="s">
+      <c r="D688" t="s">
         <v>704</v>
       </c>
-      <c r="C688" s="2"/>
-      <c r="D688" t="s">
-        <v>706</v>
-      </c>
       <c r="E688" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="H688" t="s">
         <v>12</v>
@@ -16372,17 +16387,17 @@
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
-        <v>708</v>
+        <v>701</v>
       </c>
       <c r="B689" t="s">
-        <v>709</v>
+        <v>702</v>
       </c>
       <c r="C689" s="2"/>
       <c r="D689" t="s">
-        <v>91</v>
+        <v>704</v>
       </c>
       <c r="E689" t="s">
-        <v>91</v>
+        <v>705</v>
       </c>
       <c r="H689" t="s">
         <v>12</v>
@@ -16390,10 +16405,10 @@
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B690" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="C690" s="2"/>
       <c r="D690" t="s">
@@ -16408,19 +16423,17 @@
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="B691" t="s">
-        <v>711</v>
-      </c>
-      <c r="C691" t="s">
-        <v>712</v>
-      </c>
+        <v>707</v>
+      </c>
+      <c r="C691" s="2"/>
       <c r="D691" t="s">
-        <v>713</v>
+        <v>91</v>
       </c>
       <c r="E691" t="s">
-        <v>267</v>
+        <v>91</v>
       </c>
       <c r="H691" t="s">
         <v>12</v>
@@ -16428,14 +16441,16 @@
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
+        <v>708</v>
+      </c>
+      <c r="B692" t="s">
+        <v>709</v>
+      </c>
+      <c r="C692" t="s">
         <v>710</v>
       </c>
-      <c r="B692" t="s">
+      <c r="D692" t="s">
         <v>711</v>
-      </c>
-      <c r="C692" s="2"/>
-      <c r="D692" t="s">
-        <v>713</v>
       </c>
       <c r="E692" t="s">
         <v>267</v>
@@ -16446,14 +16461,14 @@
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B693" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="E693" t="s">
         <v>267</v>
@@ -16464,19 +16479,17 @@
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B694" t="s">
-        <v>715</v>
-      </c>
-      <c r="C694" t="s">
-        <v>716</v>
-      </c>
+        <v>709</v>
+      </c>
+      <c r="C694" s="2"/>
       <c r="D694" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="E694" t="s">
-        <v>22</v>
+        <v>267</v>
       </c>
       <c r="H694" t="s">
         <v>12</v>
@@ -16484,14 +16497,16 @@
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
+        <v>712</v>
+      </c>
+      <c r="B695" t="s">
+        <v>713</v>
+      </c>
+      <c r="C695" t="s">
         <v>714</v>
       </c>
-      <c r="B695" t="s">
+      <c r="D695" t="s">
         <v>715</v>
-      </c>
-      <c r="C695" s="2"/>
-      <c r="D695" t="s">
-        <v>717</v>
       </c>
       <c r="E695" t="s">
         <v>22</v>
@@ -16502,14 +16517,14 @@
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B696" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="C696" s="2"/>
       <c r="D696" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="E696" t="s">
         <v>22</v>
@@ -16520,16 +16535,14 @@
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B697" t="s">
-        <v>719</v>
-      </c>
-      <c r="C697" t="s">
-        <v>720</v>
-      </c>
+        <v>713</v>
+      </c>
+      <c r="C697" s="2"/>
       <c r="D697" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="E697" t="s">
         <v>22</v>
@@ -16540,14 +16553,16 @@
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
+        <v>716</v>
+      </c>
+      <c r="B698" t="s">
+        <v>717</v>
+      </c>
+      <c r="C698" t="s">
         <v>718</v>
       </c>
-      <c r="B698" t="s">
+      <c r="D698" t="s">
         <v>719</v>
-      </c>
-      <c r="C698" s="2"/>
-      <c r="D698" t="s">
-        <v>721</v>
       </c>
       <c r="E698" t="s">
         <v>22</v>
@@ -16558,14 +16573,14 @@
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="B699" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="C699" s="2"/>
       <c r="D699" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="E699" t="s">
         <v>22</v>
@@ -16576,17 +16591,17 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B700" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C700" s="2"/>
       <c r="D700" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="E700" t="s">
-        <v>725</v>
+        <v>22</v>
       </c>
       <c r="H700" t="s">
         <v>12</v>
@@ -16594,17 +16609,17 @@
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="B701" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="C701" s="2"/>
       <c r="D701" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="E701" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="H701" t="s">
         <v>12</v>
@@ -16612,19 +16627,17 @@
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
       <c r="B702" t="s">
-        <v>727</v>
-      </c>
-      <c r="C702" t="s">
-        <v>728</v>
-      </c>
+        <v>721</v>
+      </c>
+      <c r="C702" s="2"/>
       <c r="D702" t="s">
-        <v>729</v>
+        <v>722</v>
       </c>
       <c r="E702" t="s">
-        <v>22</v>
+        <v>723</v>
       </c>
       <c r="H702" t="s">
         <v>12</v>
@@ -16632,14 +16645,16 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
+        <v>724</v>
+      </c>
+      <c r="B703" t="s">
+        <v>725</v>
+      </c>
+      <c r="C703" t="s">
         <v>726</v>
       </c>
-      <c r="B703" t="s">
+      <c r="D703" t="s">
         <v>727</v>
-      </c>
-      <c r="C703" s="2"/>
-      <c r="D703" t="s">
-        <v>729</v>
       </c>
       <c r="E703" t="s">
         <v>22</v>
@@ -16650,14 +16665,14 @@
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B704" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="C704" s="2"/>
       <c r="D704" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="E704" t="s">
         <v>22</v>
@@ -16668,17 +16683,17 @@
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B705" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="C705" s="2"/>
       <c r="D705" t="s">
-        <v>732</v>
+        <v>727</v>
       </c>
       <c r="E705" t="s">
-        <v>733</v>
+        <v>22</v>
       </c>
       <c r="H705" t="s">
         <v>12</v>
@@ -16686,17 +16701,17 @@
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="B706" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C706" s="2"/>
       <c r="D706" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="E706" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="H706" t="s">
         <v>12</v>
@@ -16704,17 +16719,17 @@
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B707" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="C707" s="2"/>
       <c r="D707" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="E707" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="H707" t="s">
         <v>12</v>
@@ -16722,17 +16737,17 @@
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="B708" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="C708" s="2"/>
       <c r="D708" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="E708" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="H708" t="s">
         <v>12</v>
@@ -16740,17 +16755,17 @@
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
       <c r="B709" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
       <c r="C709" s="2"/>
       <c r="D709" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="E709" t="s">
-        <v>22</v>
+        <v>735</v>
       </c>
       <c r="H709" t="s">
         <v>12</v>
@@ -16758,16 +16773,14 @@
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
+        <v>736</v>
+      </c>
+      <c r="B710" t="s">
+        <v>737</v>
+      </c>
+      <c r="C710" s="2"/>
+      <c r="D710" t="s">
         <v>738</v>
-      </c>
-      <c r="B710" t="s">
-        <v>739</v>
-      </c>
-      <c r="C710" t="s">
-        <v>741</v>
-      </c>
-      <c r="D710" t="s">
-        <v>740</v>
       </c>
       <c r="E710" t="s">
         <v>22</v>
@@ -16778,17 +16791,19 @@
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
       <c r="B711" t="s">
-        <v>731</v>
-      </c>
-      <c r="C711" s="2"/>
+        <v>737</v>
+      </c>
+      <c r="C711" t="s">
+        <v>739</v>
+      </c>
       <c r="D711" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="E711" t="s">
-        <v>744</v>
+        <v>22</v>
       </c>
       <c r="H711" t="s">
         <v>12</v>
@@ -16796,17 +16811,17 @@
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="B712" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="C712" s="2"/>
       <c r="D712" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="E712" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="H712" t="s">
         <v>12</v>
@@ -16814,19 +16829,17 @@
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="B713" t="s">
-        <v>746</v>
-      </c>
-      <c r="C713" t="s">
-        <v>747</v>
-      </c>
+        <v>729</v>
+      </c>
+      <c r="C713" s="2"/>
       <c r="D713" t="s">
-        <v>748</v>
+        <v>741</v>
       </c>
       <c r="E713" t="s">
-        <v>88</v>
+        <v>742</v>
       </c>
       <c r="H713" t="s">
         <v>12</v>
@@ -16834,16 +16847,16 @@
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
+        <v>743</v>
+      </c>
+      <c r="B714" t="s">
+        <v>744</v>
+      </c>
+      <c r="C714" t="s">
         <v>745</v>
       </c>
-      <c r="B714" t="s">
+      <c r="D714" t="s">
         <v>746</v>
-      </c>
-      <c r="C714" t="s">
-        <v>749</v>
-      </c>
-      <c r="D714" t="s">
-        <v>748</v>
       </c>
       <c r="E714" t="s">
         <v>88</v>
@@ -16854,17 +16867,19 @@
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
-        <v>750</v>
+        <v>743</v>
       </c>
       <c r="B715" t="s">
-        <v>751</v>
-      </c>
-      <c r="C715" s="2"/>
+        <v>744</v>
+      </c>
+      <c r="C715" t="s">
+        <v>747</v>
+      </c>
       <c r="D715" t="s">
-        <v>22</v>
+        <v>746</v>
       </c>
       <c r="E715" t="s">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="H715" t="s">
         <v>12</v>
@@ -16872,10 +16887,10 @@
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="B716" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="C716" s="2"/>
       <c r="D716" t="s">
@@ -16890,17 +16905,17 @@
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
-        <v>752</v>
+        <v>748</v>
       </c>
       <c r="B717" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="C717" s="2"/>
       <c r="D717" t="s">
-        <v>754</v>
+        <v>22</v>
       </c>
       <c r="E717" t="s">
-        <v>267</v>
+        <v>22</v>
       </c>
       <c r="H717" t="s">
         <v>12</v>
@@ -16908,14 +16923,14 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="B718" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="C718" s="2"/>
       <c r="D718" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="E718" t="s">
         <v>267</v>
@@ -16926,68 +16941,68 @@
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B719" t="s">
-        <v>756</v>
-      </c>
-      <c r="C719" t="s">
-        <v>757</v>
-      </c>
+        <v>751</v>
+      </c>
+      <c r="C719" s="2"/>
       <c r="D719" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="E719" t="s">
-        <v>759</v>
-      </c>
-      <c r="H719" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H719" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
+        <v>753</v>
+      </c>
+      <c r="B720" t="s">
+        <v>754</v>
+      </c>
+      <c r="C720" t="s">
         <v>755</v>
       </c>
-      <c r="B720" t="s">
+      <c r="D720" t="s">
         <v>756</v>
       </c>
-      <c r="C720" t="s">
-        <v>760</v>
-      </c>
-      <c r="D720" t="s">
-        <v>758</v>
-      </c>
       <c r="E720" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="H720" s="3" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
-        <v>761</v>
+        <v>753</v>
       </c>
       <c r="B721" t="s">
-        <v>762</v>
-      </c>
-      <c r="C721" s="2"/>
+        <v>754</v>
+      </c>
+      <c r="C721" t="s">
+        <v>758</v>
+      </c>
       <c r="D721" t="s">
-        <v>422</v>
+        <v>756</v>
       </c>
       <c r="E721" t="s">
-        <v>422</v>
-      </c>
-      <c r="H721" t="s">
-        <v>12</v>
+        <v>757</v>
+      </c>
+      <c r="H721" s="3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B722" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C722" s="2"/>
       <c r="D722" t="s">
@@ -17002,10 +17017,10 @@
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B723" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="C723" s="2"/>
       <c r="D723" t="s">
@@ -17020,19 +17035,17 @@
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="B724" t="s">
-        <v>764</v>
-      </c>
-      <c r="C724" t="s">
-        <v>15</v>
-      </c>
+        <v>760</v>
+      </c>
+      <c r="C724" s="2"/>
       <c r="D724" t="s">
-        <v>748</v>
+        <v>422</v>
       </c>
       <c r="E724" t="s">
-        <v>88</v>
+        <v>422</v>
       </c>
       <c r="H724" t="s">
         <v>12</v>
@@ -17040,16 +17053,16 @@
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B725" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="C725" t="s">
-        <v>765</v>
+        <v>15</v>
       </c>
       <c r="D725" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E725" t="s">
         <v>88</v>
@@ -17060,17 +17073,19 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="B726" t="s">
-        <v>767</v>
-      </c>
-      <c r="C726" s="2"/>
+        <v>762</v>
+      </c>
+      <c r="C726" t="s">
+        <v>763</v>
+      </c>
       <c r="D726" t="s">
-        <v>445</v>
+        <v>746</v>
       </c>
       <c r="E726" t="s">
-        <v>445</v>
+        <v>88</v>
       </c>
       <c r="H726" t="s">
         <v>12</v>
@@ -17078,10 +17093,10 @@
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B727" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C727" s="2"/>
       <c r="D727" t="s">
@@ -17096,10 +17111,10 @@
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B728" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C728" s="2"/>
       <c r="D728" t="s">
@@ -17114,10 +17129,10 @@
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B729" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C729" s="2"/>
       <c r="D729" t="s">
@@ -17132,10 +17147,10 @@
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B730" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C730" s="2"/>
       <c r="D730" t="s">
@@ -17150,10 +17165,10 @@
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="B731" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="C731" s="2"/>
       <c r="D731" t="s">
@@ -17168,17 +17183,17 @@
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
-        <v>768</v>
+        <v>764</v>
       </c>
       <c r="B732" t="s">
-        <v>769</v>
+        <v>765</v>
       </c>
       <c r="C732" s="2"/>
       <c r="D732" t="s">
-        <v>770</v>
+        <v>445</v>
       </c>
       <c r="E732" t="s">
-        <v>770</v>
+        <v>445</v>
       </c>
       <c r="H732" t="s">
         <v>12</v>
@@ -17186,17 +17201,17 @@
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B733" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C733" s="2"/>
       <c r="D733" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E733" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H733" t="s">
         <v>12</v>
@@ -17204,17 +17219,17 @@
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B734" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C734" s="2"/>
       <c r="D734" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E734" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H734" t="s">
         <v>12</v>
@@ -17222,17 +17237,17 @@
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="B735" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="C735" s="2"/>
       <c r="D735" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="E735" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="H735" t="s">
         <v>12</v>
@@ -17240,19 +17255,17 @@
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="B736" t="s">
-        <v>772</v>
-      </c>
-      <c r="C736" t="s">
-        <v>773</v>
-      </c>
+        <v>767</v>
+      </c>
+      <c r="C736" s="2"/>
       <c r="D736" t="s">
-        <v>748</v>
+        <v>768</v>
       </c>
       <c r="E736" t="s">
-        <v>88</v>
+        <v>768</v>
       </c>
       <c r="H736" t="s">
         <v>12</v>
@@ -17260,16 +17273,16 @@
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
+        <v>769</v>
+      </c>
+      <c r="B737" t="s">
+        <v>770</v>
+      </c>
+      <c r="C737" t="s">
         <v>771</v>
       </c>
-      <c r="B737" t="s">
-        <v>772</v>
-      </c>
-      <c r="C737" t="s">
-        <v>774</v>
-      </c>
       <c r="D737" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="E737" t="s">
         <v>88</v>
@@ -17280,38 +17293,34 @@
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="B738" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="C738" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="D738" t="s">
-        <v>160</v>
+        <v>746</v>
       </c>
       <c r="E738" t="s">
-        <v>160</v>
-      </c>
-      <c r="F738" t="s">
-        <v>161</v>
-      </c>
-      <c r="G738" t="s">
-        <v>162</v>
+        <v>88</v>
       </c>
       <c r="H738" t="s">
-        <v>163</v>
+        <v>12</v>
       </c>
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
+        <v>773</v>
+      </c>
+      <c r="B739" t="s">
+        <v>774</v>
+      </c>
+      <c r="C739" t="s">
         <v>775</v>
       </c>
-      <c r="B739" t="s">
-        <v>776</v>
-      </c>
-      <c r="C739" s="2"/>
       <c r="D739" t="s">
         <v>160</v>
       </c>
@@ -17330,10 +17339,10 @@
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B740" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="C740" s="2"/>
       <c r="D740" t="s">
@@ -17354,38 +17363,38 @@
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
       <c r="B741" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="C741" s="2"/>
       <c r="D741" t="s">
-        <v>780</v>
+        <v>160</v>
       </c>
       <c r="E741" t="s">
-        <v>22</v>
+        <v>160</v>
       </c>
       <c r="F741" t="s">
-        <v>120</v>
+        <v>161</v>
       </c>
       <c r="G741" t="s">
-        <v>53</v>
+        <v>162</v>
       </c>
       <c r="H741" t="s">
-        <v>12</v>
+        <v>163</v>
       </c>
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B742" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C742" s="2"/>
       <c r="D742" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E742" t="s">
         <v>22</v>
@@ -17402,14 +17411,14 @@
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B743" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C743" s="2"/>
       <c r="D743" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E743" t="s">
         <v>22</v>
@@ -17426,14 +17435,14 @@
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="B744" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="C744" s="2"/>
       <c r="D744" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="E744" t="s">
         <v>22</v>
@@ -17450,16 +17459,14 @@
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
+        <v>776</v>
+      </c>
+      <c r="B745" t="s">
+        <v>777</v>
+      </c>
+      <c r="C745" s="2"/>
+      <c r="D745" t="s">
         <v>778</v>
-      </c>
-      <c r="B745" t="s">
-        <v>779</v>
-      </c>
-      <c r="C745" t="s">
-        <v>781</v>
-      </c>
-      <c r="D745" t="s">
-        <v>780</v>
       </c>
       <c r="E745" t="s">
         <v>22</v>
@@ -17476,14 +17483,16 @@
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
+        <v>776</v>
+      </c>
+      <c r="B746" t="s">
+        <v>777</v>
+      </c>
+      <c r="C746" t="s">
+        <v>779</v>
+      </c>
+      <c r="D746" t="s">
         <v>778</v>
-      </c>
-      <c r="B746" t="s">
-        <v>779</v>
-      </c>
-      <c r="C746" s="2"/>
-      <c r="D746" t="s">
-        <v>780</v>
       </c>
       <c r="E746" t="s">
         <v>22</v>
@@ -17500,17 +17509,23 @@
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
       <c r="B747" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
       <c r="C747" s="2"/>
       <c r="D747" t="s">
-        <v>22</v>
+        <v>778</v>
       </c>
       <c r="E747" t="s">
         <v>22</v>
+      </c>
+      <c r="F747" t="s">
+        <v>120</v>
+      </c>
+      <c r="G747" t="s">
+        <v>53</v>
       </c>
       <c r="H747" t="s">
         <v>12</v>
@@ -17518,10 +17533,10 @@
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B748" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C748" s="2"/>
       <c r="D748" t="s">
@@ -17536,10 +17551,10 @@
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B749" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C749" s="2"/>
       <c r="D749" t="s">
@@ -17554,10 +17569,10 @@
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="B750" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="C750" s="2"/>
       <c r="D750" t="s">
@@ -17572,23 +17587,17 @@
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
-        <v>784</v>
+        <v>780</v>
       </c>
       <c r="B751" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="C751" s="2"/>
       <c r="D751" t="s">
-        <v>786</v>
+        <v>22</v>
       </c>
       <c r="E751" t="s">
-        <v>786</v>
-      </c>
-      <c r="F751" t="s">
-        <v>120</v>
-      </c>
-      <c r="G751" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="H751" t="s">
         <v>12</v>
@@ -17596,17 +17605,17 @@
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B752" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C752" s="2"/>
       <c r="D752" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E752" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F752" t="s">
         <v>120</v>
@@ -17620,17 +17629,17 @@
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B753" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C753" s="2"/>
       <c r="D753" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E753" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F753" t="s">
         <v>120</v>
@@ -17644,17 +17653,17 @@
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="B754" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="C754" s="2"/>
       <c r="D754" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="E754" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F754" t="s">
         <v>120</v>
@@ -17664,6 +17673,102 @@
       </c>
       <c r="H754" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A755" t="s">
+        <v>782</v>
+      </c>
+      <c r="B755" t="s">
+        <v>783</v>
+      </c>
+      <c r="C755" s="2"/>
+      <c r="D755" t="s">
+        <v>784</v>
+      </c>
+      <c r="E755" t="s">
+        <v>784</v>
+      </c>
+      <c r="F755" t="s">
+        <v>120</v>
+      </c>
+      <c r="G755" t="s">
+        <v>53</v>
+      </c>
+      <c r="H755" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A756" t="s">
+        <v>825</v>
+      </c>
+      <c r="B756" t="s">
+        <v>826</v>
+      </c>
+      <c r="C756" s="2"/>
+      <c r="D756" t="s">
+        <v>827</v>
+      </c>
+      <c r="E756" t="s">
+        <v>828</v>
+      </c>
+      <c r="H756" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A757" t="s">
+        <v>825</v>
+      </c>
+      <c r="B757" t="s">
+        <v>826</v>
+      </c>
+      <c r="C757" s="2"/>
+      <c r="D757" t="s">
+        <v>827</v>
+      </c>
+      <c r="E757" t="s">
+        <v>828</v>
+      </c>
+      <c r="H757" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A758" t="s">
+        <v>825</v>
+      </c>
+      <c r="B758" t="s">
+        <v>826</v>
+      </c>
+      <c r="C758" s="2"/>
+      <c r="D758" t="s">
+        <v>827</v>
+      </c>
+      <c r="E758" t="s">
+        <v>828</v>
+      </c>
+      <c r="H758" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A759" t="s">
+        <v>825</v>
+      </c>
+      <c r="B759" t="s">
+        <v>826</v>
+      </c>
+      <c r="C759" s="2"/>
+      <c r="D759" t="s">
+        <v>827</v>
+      </c>
+      <c r="E759" t="s">
+        <v>828</v>
+      </c>
+      <c r="H759" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
